--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>837.6961807293458</v>
+        <v>959.4815946655352</v>
       </c>
       <c r="AB2" t="n">
-        <v>1146.172871021123</v>
+        <v>1312.805047161888</v>
       </c>
       <c r="AC2" t="n">
-        <v>1036.783740874594</v>
+        <v>1187.512775994212</v>
       </c>
       <c r="AD2" t="n">
-        <v>837696.1807293458</v>
+        <v>959481.5946655353</v>
       </c>
       <c r="AE2" t="n">
-        <v>1146172.871021123</v>
+        <v>1312805.047161888</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.843680483026003e-07</v>
+        <v>1.451286248232731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1036783.740874594</v>
+        <v>1187512.775994212</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.0015547436439</v>
+        <v>686.3708485479423</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.3168415175633</v>
+        <v>939.1228755280397</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.8360762920619</v>
+        <v>849.4943063548769</v>
       </c>
       <c r="AD3" t="n">
-        <v>601001.5547436439</v>
+        <v>686370.8485479422</v>
       </c>
       <c r="AE3" t="n">
-        <v>822316.8415175632</v>
+        <v>939122.8755280396</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.007116062972036e-06</v>
+        <v>1.863428394015523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>743836.0762920618</v>
+        <v>849494.306354877</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>530.175979519324</v>
+        <v>627.5701027196061</v>
       </c>
       <c r="AB4" t="n">
-        <v>725.410164891793</v>
+        <v>858.6691009798869</v>
       </c>
       <c r="AC4" t="n">
-        <v>656.1780368740805</v>
+        <v>776.7189271320182</v>
       </c>
       <c r="AD4" t="n">
-        <v>530175.9795193239</v>
+        <v>627570.1027196061</v>
       </c>
       <c r="AE4" t="n">
-        <v>725410.164891793</v>
+        <v>858669.1009798869</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.090445247963117e-06</v>
+        <v>2.017609203032035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.93880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>656178.0368740804</v>
+        <v>776718.9271320181</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>506.3845797905995</v>
+        <v>591.5831918857544</v>
       </c>
       <c r="AB5" t="n">
-        <v>692.8577221804736</v>
+        <v>809.4302219465548</v>
       </c>
       <c r="AC5" t="n">
-        <v>626.732353607489</v>
+        <v>732.1793376064263</v>
       </c>
       <c r="AD5" t="n">
-        <v>506384.5797905995</v>
+        <v>591583.1918857545</v>
       </c>
       <c r="AE5" t="n">
-        <v>692857.7221804736</v>
+        <v>809430.2219465547</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.138528755268894e-06</v>
+        <v>2.106576280503747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>626732.353607489</v>
+        <v>732179.3376064263</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>492.864969291795</v>
+        <v>566.0386624824151</v>
       </c>
       <c r="AB6" t="n">
-        <v>674.359594652889</v>
+        <v>774.4790698718042</v>
       </c>
       <c r="AC6" t="n">
-        <v>609.9996614088519</v>
+        <v>700.56387443144</v>
       </c>
       <c r="AD6" t="n">
-        <v>492864.969291795</v>
+        <v>566038.6624824151</v>
       </c>
       <c r="AE6" t="n">
-        <v>674359.5946528889</v>
+        <v>774479.0698718042</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.167308835127159e-06</v>
+        <v>2.159826963281719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>609999.661408852</v>
+        <v>700563.87443144</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>471.3257668297192</v>
+        <v>556.6096302708949</v>
       </c>
       <c r="AB7" t="n">
-        <v>644.8887076017289</v>
+        <v>761.5778520204594</v>
       </c>
       <c r="AC7" t="n">
-        <v>583.341434455205</v>
+        <v>688.8939307048545</v>
       </c>
       <c r="AD7" t="n">
-        <v>471325.7668297192</v>
+        <v>556609.6302708948</v>
       </c>
       <c r="AE7" t="n">
-        <v>644888.707601729</v>
+        <v>761577.8520204595</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.185841992797444e-06</v>
+        <v>2.194118157219844e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>583341.434455205</v>
+        <v>688893.9307048544</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>463.702146915218</v>
+        <v>548.9860103563936</v>
       </c>
       <c r="AB8" t="n">
-        <v>634.4577345043349</v>
+        <v>751.1468789230653</v>
       </c>
       <c r="AC8" t="n">
-        <v>573.9059787902634</v>
+        <v>679.458475039913</v>
       </c>
       <c r="AD8" t="n">
-        <v>463702.146915218</v>
+        <v>548986.0103563936</v>
       </c>
       <c r="AE8" t="n">
-        <v>634457.7345043349</v>
+        <v>751146.8789230653</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.200313728005979e-06</v>
+        <v>2.220894656264729e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.66276041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>573905.9787902634</v>
+        <v>679458.475039913</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>457.595138682925</v>
+        <v>542.8790021241007</v>
       </c>
       <c r="AB9" t="n">
-        <v>626.1018564187233</v>
+        <v>742.7910008374537</v>
       </c>
       <c r="AC9" t="n">
-        <v>566.3475739815941</v>
+        <v>671.9000702312436</v>
       </c>
       <c r="AD9" t="n">
-        <v>457595.138682925</v>
+        <v>542879.0021241007</v>
       </c>
       <c r="AE9" t="n">
-        <v>626101.8564187232</v>
+        <v>742791.0008374536</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.211307578462785e-06</v>
+        <v>2.241236157958504e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>566347.5739815941</v>
+        <v>671900.0702312436</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>452.9872200430301</v>
+        <v>526.0755723790786</v>
       </c>
       <c r="AB10" t="n">
-        <v>619.7970988485959</v>
+        <v>719.7998069453134</v>
       </c>
       <c r="AC10" t="n">
-        <v>560.6445336251768</v>
+        <v>651.103123615826</v>
       </c>
       <c r="AD10" t="n">
-        <v>452987.2200430301</v>
+        <v>526075.5723790786</v>
       </c>
       <c r="AE10" t="n">
-        <v>619797.0988485959</v>
+        <v>719799.8069453135</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.217843200815027e-06</v>
+        <v>2.253328770430387e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.48046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>560644.5336251768</v>
+        <v>651103.123615826</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>448.4304562246761</v>
+        <v>521.5188085607246</v>
       </c>
       <c r="AB11" t="n">
-        <v>613.5623335620921</v>
+        <v>713.5650416588098</v>
       </c>
       <c r="AC11" t="n">
-        <v>555.004805587069</v>
+        <v>645.4633955777183</v>
       </c>
       <c r="AD11" t="n">
-        <v>448430.4562246761</v>
+        <v>521518.8085607246</v>
       </c>
       <c r="AE11" t="n">
-        <v>613562.3335620922</v>
+        <v>713565.0416588099</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.225896021213325e-06</v>
+        <v>2.268228596511815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>555004.805587069</v>
+        <v>645463.3955777183</v>
       </c>
     </row>
     <row r="12">
@@ -6787,28 +6787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>442.9136880549329</v>
+        <v>516.0020403909814</v>
       </c>
       <c r="AB12" t="n">
-        <v>606.014047969615</v>
+        <v>706.0167560663327</v>
       </c>
       <c r="AC12" t="n">
-        <v>548.1769177774527</v>
+        <v>638.6355077681018</v>
       </c>
       <c r="AD12" t="n">
-        <v>442913.6880549329</v>
+        <v>516002.0403909814</v>
       </c>
       <c r="AE12" t="n">
-        <v>606014.0479696151</v>
+        <v>706016.7560663327</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.233995524628424e-06</v>
+        <v>2.283214798396613e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>548176.9177774526</v>
+        <v>638635.5077681018</v>
       </c>
     </row>
     <row r="13">
@@ -6893,28 +6893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>439.578796591126</v>
+        <v>512.6671489271744</v>
       </c>
       <c r="AB13" t="n">
-        <v>601.4511023438065</v>
+        <v>701.4538104405242</v>
       </c>
       <c r="AC13" t="n">
-        <v>544.0494532780368</v>
+        <v>634.5080432686859</v>
       </c>
       <c r="AD13" t="n">
-        <v>439578.796591126</v>
+        <v>512667.1489271744</v>
       </c>
       <c r="AE13" t="n">
-        <v>601451.1023438065</v>
+        <v>701453.8104405242</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.238453752732989e-06</v>
+        <v>2.291463687618504e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>544049.4532780368</v>
+        <v>634508.0432686859</v>
       </c>
     </row>
     <row r="14">
@@ -6999,28 +6999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>436.9952209418358</v>
+        <v>510.0835732778843</v>
       </c>
       <c r="AB14" t="n">
-        <v>597.9161401611343</v>
+        <v>697.918848257852</v>
       </c>
       <c r="AC14" t="n">
-        <v>540.8518629247282</v>
+        <v>631.3104529153775</v>
       </c>
       <c r="AD14" t="n">
-        <v>436995.2209418358</v>
+        <v>510083.5732778843</v>
       </c>
       <c r="AE14" t="n">
-        <v>597916.1401611343</v>
+        <v>697918.848257852</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.240601171505869e-06</v>
+        <v>2.295436974573552e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.24609375</v>
       </c>
       <c r="AH14" t="n">
-        <v>540851.8629247282</v>
+        <v>631310.4529153774</v>
       </c>
     </row>
     <row r="15">
@@ -7105,28 +7105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>432.6638858294265</v>
+        <v>505.752238165475</v>
       </c>
       <c r="AB15" t="n">
-        <v>591.9898163753168</v>
+        <v>691.9925244720345</v>
       </c>
       <c r="AC15" t="n">
-        <v>535.4911391633814</v>
+        <v>625.9497291540307</v>
       </c>
       <c r="AD15" t="n">
-        <v>432663.8858294265</v>
+        <v>505752.238165475</v>
       </c>
       <c r="AE15" t="n">
-        <v>591989.8163753168</v>
+        <v>691992.5244720344</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.24550288827005e-06</v>
+        <v>2.304506433927465e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>535491.1391633814</v>
+        <v>625949.7291540307</v>
       </c>
     </row>
     <row r="16">
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>428.2887816609501</v>
+        <v>501.3771339969986</v>
       </c>
       <c r="AB16" t="n">
-        <v>586.0036058360338</v>
+        <v>686.0063139327515</v>
       </c>
       <c r="AC16" t="n">
-        <v>530.0762441562684</v>
+        <v>620.5348341469175</v>
       </c>
       <c r="AD16" t="n">
-        <v>428288.78166095</v>
+        <v>501377.1339969985</v>
       </c>
       <c r="AE16" t="n">
-        <v>586003.6058360338</v>
+        <v>686006.3139327515</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.249377578664593e-06</v>
+        <v>2.311675625607224e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>530076.2441562684</v>
+        <v>620534.8341469176</v>
       </c>
     </row>
     <row r="17">
@@ -7317,28 +7317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>426.1975262221486</v>
+        <v>499.2858785581971</v>
       </c>
       <c r="AB17" t="n">
-        <v>583.1422578849872</v>
+        <v>683.1449659817049</v>
       </c>
       <c r="AC17" t="n">
-        <v>527.4879792377425</v>
+        <v>617.9465692283917</v>
       </c>
       <c r="AD17" t="n">
-        <v>426197.5262221486</v>
+        <v>499285.8785581971</v>
       </c>
       <c r="AE17" t="n">
-        <v>583142.2578849872</v>
+        <v>683144.9659817049</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.248583967378964e-06</v>
+        <v>2.310207236949924e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH17" t="n">
-        <v>527487.9792377425</v>
+        <v>617946.5692283917</v>
       </c>
     </row>
     <row r="18">
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>423.321359365513</v>
+        <v>496.4097117015615</v>
       </c>
       <c r="AB18" t="n">
-        <v>579.2069595042118</v>
+        <v>679.2096676009295</v>
       </c>
       <c r="AC18" t="n">
-        <v>523.9282602112024</v>
+        <v>614.3868502018516</v>
       </c>
       <c r="AD18" t="n">
-        <v>423321.359365513</v>
+        <v>496409.7117015615</v>
       </c>
       <c r="AE18" t="n">
-        <v>579206.9595042118</v>
+        <v>679209.6676009295</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.253112220008731e-06</v>
+        <v>2.318585689876871e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>523928.2602112024</v>
+        <v>614386.8502018517</v>
       </c>
     </row>
     <row r="19">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>419.3125756259948</v>
+        <v>492.4009279620433</v>
       </c>
       <c r="AB19" t="n">
-        <v>573.7219647367464</v>
+        <v>673.7246728334641</v>
       </c>
       <c r="AC19" t="n">
-        <v>518.9667456461054</v>
+        <v>609.4253356367545</v>
       </c>
       <c r="AD19" t="n">
-        <v>419312.5756259948</v>
+        <v>492400.9279620433</v>
       </c>
       <c r="AE19" t="n">
-        <v>573721.9647367464</v>
+        <v>673724.6728334641</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.253135561517132e-06</v>
+        <v>2.318628877778556e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH19" t="n">
-        <v>518966.7456461054</v>
+        <v>609425.3356367545</v>
       </c>
     </row>
     <row r="20">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>416.0130167127923</v>
+        <v>489.1013690488408</v>
       </c>
       <c r="AB20" t="n">
-        <v>569.207362665437</v>
+        <v>669.2100707621547</v>
       </c>
       <c r="AC20" t="n">
-        <v>514.8830108601981</v>
+        <v>605.3416008508473</v>
       </c>
       <c r="AD20" t="n">
-        <v>416013.0167127923</v>
+        <v>489101.3690488408</v>
       </c>
       <c r="AE20" t="n">
-        <v>569207.362665437</v>
+        <v>669210.0707621548</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.257733838672102e-06</v>
+        <v>2.32713689441056e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>514883.0108601981</v>
+        <v>605341.6008508473</v>
       </c>
     </row>
     <row r="21">
@@ -7741,28 +7741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>413.7748477050784</v>
+        <v>486.8632000411269</v>
       </c>
       <c r="AB21" t="n">
-        <v>566.1450010880351</v>
+        <v>666.1477091847528</v>
       </c>
       <c r="AC21" t="n">
-        <v>512.1129167736917</v>
+        <v>602.5715067643409</v>
       </c>
       <c r="AD21" t="n">
-        <v>413774.8477050784</v>
+        <v>486863.2000411269</v>
       </c>
       <c r="AE21" t="n">
-        <v>566145.0010880351</v>
+        <v>666147.7091847528</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.256683470794063e-06</v>
+        <v>2.325193438834722e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH21" t="n">
-        <v>512112.9167736918</v>
+        <v>602571.5067643409</v>
       </c>
     </row>
     <row r="22">
@@ -7847,28 +7847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>412.6903373318435</v>
+        <v>485.778689667892</v>
       </c>
       <c r="AB22" t="n">
-        <v>564.661126150154</v>
+        <v>664.6638342468717</v>
       </c>
       <c r="AC22" t="n">
-        <v>510.7706607772506</v>
+        <v>601.2292507678998</v>
       </c>
       <c r="AD22" t="n">
-        <v>412690.3373318434</v>
+        <v>485778.6896678919</v>
       </c>
       <c r="AE22" t="n">
-        <v>564661.126150154</v>
+        <v>664663.8342468718</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256963568894873e-06</v>
+        <v>2.325711693654946e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH22" t="n">
-        <v>510770.6607772505</v>
+        <v>601229.2507678998</v>
       </c>
     </row>
     <row r="23">
@@ -7953,28 +7953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>411.1118525159032</v>
+        <v>484.2002048519517</v>
       </c>
       <c r="AB23" t="n">
-        <v>562.5013735871493</v>
+        <v>662.504081683867</v>
       </c>
       <c r="AC23" t="n">
-        <v>508.8170319676273</v>
+        <v>599.2756219582765</v>
       </c>
       <c r="AD23" t="n">
-        <v>411111.8525159032</v>
+        <v>484200.2048519517</v>
       </c>
       <c r="AE23" t="n">
-        <v>562501.3735871493</v>
+        <v>662504.0816838669</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.261585187558244e-06</v>
+        <v>2.334262898188634e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>508817.0319676272</v>
+        <v>599275.6219582765</v>
       </c>
     </row>
   </sheetData>
@@ -8250,28 +8250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.2386790528437</v>
+        <v>772.9414960467066</v>
       </c>
       <c r="AB2" t="n">
-        <v>912.9453971730979</v>
+        <v>1057.572654663269</v>
       </c>
       <c r="AC2" t="n">
-        <v>825.8151697938092</v>
+        <v>956.6394048147492</v>
       </c>
       <c r="AD2" t="n">
-        <v>667238.6790528437</v>
+        <v>772941.4960467066</v>
       </c>
       <c r="AE2" t="n">
-        <v>912945.3971730979</v>
+        <v>1057572.654663269</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.063616679641763e-07</v>
+        <v>1.72766522010996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>825815.1697938092</v>
+        <v>956639.4048147493</v>
       </c>
     </row>
     <row r="3">
@@ -8356,28 +8356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.3509486835813</v>
+        <v>590.6116822665813</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.5481948499244</v>
+        <v>808.1009596256225</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.1660513414694</v>
+        <v>730.9769382157725</v>
       </c>
       <c r="AD3" t="n">
-        <v>508350.9486835813</v>
+        <v>590611.6822665813</v>
       </c>
       <c r="AE3" t="n">
-        <v>695548.1948499243</v>
+        <v>808100.9596256225</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.109240257431222e-06</v>
+        <v>2.11438312237349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.17317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>629166.0513414694</v>
+        <v>730976.9382157725</v>
       </c>
     </row>
     <row r="4">
@@ -8462,28 +8462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>463.5505105694463</v>
+        <v>545.7259032978747</v>
       </c>
       <c r="AB4" t="n">
-        <v>634.2502589663263</v>
+        <v>746.6862566198268</v>
       </c>
       <c r="AC4" t="n">
-        <v>573.7183044264087</v>
+        <v>675.423568268773</v>
       </c>
       <c r="AD4" t="n">
-        <v>463550.5105694463</v>
+        <v>545725.9032978746</v>
       </c>
       <c r="AE4" t="n">
-        <v>634250.2589663264</v>
+        <v>746686.2566198269</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.182838679318338e-06</v>
+        <v>2.25467307311132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.28776041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>573718.3044264087</v>
+        <v>675423.568268773</v>
       </c>
     </row>
     <row r="5">
@@ -8568,28 +8568,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.2816337111498</v>
+        <v>512.5422777855988</v>
       </c>
       <c r="AB5" t="n">
-        <v>588.7303139295446</v>
+        <v>701.2829562356944</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.5427190562933</v>
+        <v>634.3534951493698</v>
       </c>
       <c r="AD5" t="n">
-        <v>430281.6337111498</v>
+        <v>512542.2777855988</v>
       </c>
       <c r="AE5" t="n">
-        <v>588730.3139295446</v>
+        <v>701282.9562356945</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.23151795048777e-06</v>
+        <v>2.347463276748939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76692708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>532542.7190562934</v>
+        <v>634353.4951493698</v>
       </c>
     </row>
     <row r="6">
@@ -8674,28 +8674,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>424.398101938801</v>
+        <v>506.65874601325</v>
       </c>
       <c r="AB6" t="n">
-        <v>580.6802061955143</v>
+        <v>693.2328485016641</v>
       </c>
       <c r="AC6" t="n">
-        <v>525.2609023060016</v>
+        <v>627.0716783990782</v>
       </c>
       <c r="AD6" t="n">
-        <v>424398.101938801</v>
+        <v>506658.74601325</v>
       </c>
       <c r="AE6" t="n">
-        <v>580680.2061955143</v>
+        <v>693232.8485016641</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.24629558637849e-06</v>
+        <v>2.375631731424645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>525260.9023060016</v>
+        <v>627071.6783990782</v>
       </c>
     </row>
     <row r="7">
@@ -8780,28 +8780,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>415.9195892757216</v>
+        <v>486.4166107260044</v>
       </c>
       <c r="AB7" t="n">
-        <v>569.0795311243091</v>
+        <v>665.5366659816721</v>
       </c>
       <c r="AC7" t="n">
-        <v>514.7673793819426</v>
+        <v>602.0187806669578</v>
       </c>
       <c r="AD7" t="n">
-        <v>415919.5892757216</v>
+        <v>486416.6107260043</v>
       </c>
       <c r="AE7" t="n">
-        <v>569079.5311243092</v>
+        <v>665536.665981672</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.263825919150815e-06</v>
+        <v>2.409047251187002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>514767.3793819427</v>
+        <v>602018.7806669578</v>
       </c>
     </row>
     <row r="8">
@@ -8886,28 +8886,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>409.4700728155958</v>
+        <v>479.9670942658786</v>
       </c>
       <c r="AB8" t="n">
-        <v>560.2550181709802</v>
+        <v>656.712153028343</v>
       </c>
       <c r="AC8" t="n">
-        <v>506.7850655595976</v>
+        <v>594.0364668446127</v>
       </c>
       <c r="AD8" t="n">
-        <v>409470.0728155958</v>
+        <v>479967.0942658787</v>
       </c>
       <c r="AE8" t="n">
-        <v>560255.0181709802</v>
+        <v>656712.153028343</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.274136459224896e-06</v>
+        <v>2.428700731818581e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.33723958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>506785.0655595976</v>
+        <v>594036.4668446127</v>
       </c>
     </row>
     <row r="9">
@@ -8992,28 +8992,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>403.9108450523366</v>
+        <v>474.4078665026195</v>
       </c>
       <c r="AB9" t="n">
-        <v>552.6486374894694</v>
+        <v>649.1057723468322</v>
       </c>
       <c r="AC9" t="n">
-        <v>499.9046271747079</v>
+        <v>587.156028459723</v>
       </c>
       <c r="AD9" t="n">
-        <v>403910.8450523366</v>
+        <v>474407.8665026195</v>
       </c>
       <c r="AE9" t="n">
-        <v>552648.6374894694</v>
+        <v>649105.7723468322</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.284205534660239e-06</v>
+        <v>2.44789394358291e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>499904.6271747078</v>
+        <v>587156.028459723</v>
       </c>
     </row>
     <row r="10">
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>398.9478349053223</v>
+        <v>469.4448563556051</v>
       </c>
       <c r="AB10" t="n">
-        <v>545.8580280537695</v>
+        <v>642.3151629111323</v>
       </c>
       <c r="AC10" t="n">
-        <v>493.7621039728711</v>
+        <v>581.0135052578861</v>
       </c>
       <c r="AD10" t="n">
-        <v>398947.8349053223</v>
+        <v>469444.8563556051</v>
       </c>
       <c r="AE10" t="n">
-        <v>545858.0280537695</v>
+        <v>642315.1629111323</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.291690938461095e-06</v>
+        <v>2.462162278467663e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>493762.1039728711</v>
+        <v>581013.5052578861</v>
       </c>
     </row>
     <row r="11">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>392.4369599649705</v>
+        <v>462.9339814152534</v>
       </c>
       <c r="AB11" t="n">
-        <v>536.9495617208503</v>
+        <v>633.406696578213</v>
       </c>
       <c r="AC11" t="n">
-        <v>485.7038491636546</v>
+        <v>572.9552504486697</v>
       </c>
       <c r="AD11" t="n">
-        <v>392436.9599649705</v>
+        <v>462933.9814152534</v>
       </c>
       <c r="AE11" t="n">
-        <v>536949.5617208503</v>
+        <v>633406.696578213</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.299731710931045e-06</v>
+        <v>2.477489231747091e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>485703.8491636546</v>
+        <v>572955.2504486698</v>
       </c>
     </row>
     <row r="12">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>389.0501970188359</v>
+        <v>459.5472184691188</v>
       </c>
       <c r="AB12" t="n">
-        <v>532.3156432445129</v>
+        <v>628.7727781018757</v>
       </c>
       <c r="AC12" t="n">
-        <v>481.5121853629533</v>
+        <v>568.7635866479685</v>
       </c>
       <c r="AD12" t="n">
-        <v>389050.1970188359</v>
+        <v>459547.2184691188</v>
       </c>
       <c r="AE12" t="n">
-        <v>532315.6432445128</v>
+        <v>628772.7781018757</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.302919044162377e-06</v>
+        <v>2.483564780794793e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.06380208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>481512.1853629533</v>
+        <v>568763.5866479685</v>
       </c>
     </row>
     <row r="13">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>384.7334361476111</v>
+        <v>455.230457597894</v>
       </c>
       <c r="AB13" t="n">
-        <v>526.4092605784541</v>
+        <v>622.8663954358168</v>
       </c>
       <c r="AC13" t="n">
-        <v>476.1694995688831</v>
+        <v>563.4209008538983</v>
       </c>
       <c r="AD13" t="n">
-        <v>384733.4361476111</v>
+        <v>455230.457597894</v>
       </c>
       <c r="AE13" t="n">
-        <v>526409.2605784541</v>
+        <v>622866.3954358168</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.30695150362929e-06</v>
+        <v>2.491251270877869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH13" t="n">
-        <v>476169.4995688831</v>
+        <v>563420.9008538983</v>
       </c>
     </row>
     <row r="14">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>365.8057122677192</v>
+        <v>447.9810154875966</v>
       </c>
       <c r="AB14" t="n">
-        <v>500.5115137337421</v>
+        <v>612.9473889176942</v>
       </c>
       <c r="AC14" t="n">
-        <v>452.7433973353145</v>
+        <v>554.4485503964522</v>
       </c>
       <c r="AD14" t="n">
-        <v>365805.7122677192</v>
+        <v>447981.0154875966</v>
       </c>
       <c r="AE14" t="n">
-        <v>500511.5137337421</v>
+        <v>612947.3889176942</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.313519341802943e-06</v>
+        <v>2.503770584067072e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>452743.3973353145</v>
+        <v>554448.5503964522</v>
       </c>
     </row>
     <row r="15">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>363.8910433432456</v>
+        <v>446.066346563123</v>
       </c>
       <c r="AB15" t="n">
-        <v>497.8917792420458</v>
+        <v>610.3276544259978</v>
       </c>
       <c r="AC15" t="n">
-        <v>450.3736866266852</v>
+        <v>552.0788396878229</v>
       </c>
       <c r="AD15" t="n">
-        <v>363891.0433432456</v>
+        <v>446066.346563123</v>
       </c>
       <c r="AE15" t="n">
-        <v>497891.7792420458</v>
+        <v>610327.6544259979</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.313543488266816e-06</v>
+        <v>2.503816610953796e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>450373.6866266852</v>
+        <v>552078.8396878229</v>
       </c>
     </row>
     <row r="16">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>363.9718028821903</v>
+        <v>446.1471061020678</v>
       </c>
       <c r="AB16" t="n">
-        <v>498.0022780060895</v>
+        <v>610.4381531900416</v>
       </c>
       <c r="AC16" t="n">
-        <v>450.4736395437745</v>
+        <v>552.1787926049121</v>
       </c>
       <c r="AD16" t="n">
-        <v>363971.8028821903</v>
+        <v>446147.1061020677</v>
       </c>
       <c r="AE16" t="n">
-        <v>498002.2780060894</v>
+        <v>610438.1531900415</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.313181291308711e-06</v>
+        <v>2.503126207652921e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.97265625</v>
       </c>
       <c r="AH16" t="n">
-        <v>450473.6395437745</v>
+        <v>552178.7926049122</v>
       </c>
     </row>
   </sheetData>
@@ -10031,28 +10031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.9003290920803</v>
+        <v>436.1444265304165</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.5362402963734</v>
+        <v>596.75204571303</v>
       </c>
       <c r="AC2" t="n">
-        <v>449.147518415477</v>
+        <v>539.7988680169343</v>
       </c>
       <c r="AD2" t="n">
-        <v>362900.3290920803</v>
+        <v>436144.4265304165</v>
       </c>
       <c r="AE2" t="n">
-        <v>496536.2402963734</v>
+        <v>596752.04571303</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279028645853639e-06</v>
+        <v>2.723996290118616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>449147.518415477</v>
+        <v>539798.8680169343</v>
       </c>
     </row>
     <row r="3">
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.4615678882882</v>
+        <v>377.156971489413</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.2601902500203</v>
+        <v>516.0428073830767</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.1967615665273</v>
+        <v>466.7924061170642</v>
       </c>
       <c r="AD3" t="n">
-        <v>314461.5678882882</v>
+        <v>377156.9714894129</v>
       </c>
       <c r="AE3" t="n">
-        <v>430260.1902500204</v>
+        <v>516042.8073830768</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.409410352558626e-06</v>
+        <v>3.00167520412502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>389196.7615665273</v>
+        <v>466792.4061170642</v>
       </c>
     </row>
     <row r="4">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.1720629139637</v>
+        <v>360.8674665150883</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.9721709019092</v>
+        <v>493.7547880349657</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.0358795035683</v>
+        <v>446.6315240541052</v>
       </c>
       <c r="AD4" t="n">
-        <v>298172.0629139636</v>
+        <v>360867.4665150883</v>
       </c>
       <c r="AE4" t="n">
-        <v>407972.1709019092</v>
+        <v>493754.7880349656</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.458017213252116e-06</v>
+        <v>3.105195096844084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>369035.8795035683</v>
+        <v>446631.5240541052</v>
       </c>
     </row>
     <row r="5">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.6811272511455</v>
+        <v>339.4617821982909</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.5673246148747</v>
+        <v>464.4665864005804</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.4373904762074</v>
+        <v>420.1385472774565</v>
       </c>
       <c r="AD5" t="n">
-        <v>276681.1272511455</v>
+        <v>339461.7821982909</v>
       </c>
       <c r="AE5" t="n">
-        <v>378567.3246148747</v>
+        <v>464466.5864005804</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.478305997122514e-06</v>
+        <v>3.14840489685376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.86848958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>342437.3904762074</v>
+        <v>420138.5472774565</v>
       </c>
     </row>
     <row r="6">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>275.4798446561998</v>
+        <v>338.2604996033451</v>
       </c>
       <c r="AB6" t="n">
-        <v>376.923676771622</v>
+        <v>462.8229385573279</v>
       </c>
       <c r="AC6" t="n">
-        <v>340.9506100762406</v>
+        <v>418.6517668774897</v>
       </c>
       <c r="AD6" t="n">
-        <v>275479.8446561998</v>
+        <v>338260.4996033451</v>
       </c>
       <c r="AE6" t="n">
-        <v>376923.676771622</v>
+        <v>462822.9385573278</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.483048129873098e-06</v>
+        <v>3.158504398582449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.82942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>340950.6100762406</v>
+        <v>418651.7668774897</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.6692237354148</v>
+        <v>542.358251250446</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.0984905052823</v>
+        <v>742.0784865182121</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.7262836921727</v>
+        <v>671.2555572786105</v>
       </c>
       <c r="AD2" t="n">
-        <v>454669.2237354148</v>
+        <v>542358.251250446</v>
       </c>
       <c r="AE2" t="n">
-        <v>622098.4905052823</v>
+        <v>742078.4865182121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.132099868138847e-06</v>
+        <v>2.29855413509111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>562726.2836921727</v>
+        <v>671255.5572786104</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.0558815006694</v>
+        <v>449.7731129695002</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.4315151331568</v>
+        <v>615.3994157541955</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.7166477239784</v>
+        <v>556.666559233119</v>
       </c>
       <c r="AD3" t="n">
-        <v>373055.8815006694</v>
+        <v>449773.1129695002</v>
       </c>
       <c r="AE3" t="n">
-        <v>510431.5151331568</v>
+        <v>615399.4157541955</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292712670469748e-06</v>
+        <v>2.624653652753967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.98177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>461716.6477239784</v>
+        <v>556666.559233119</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.3378049634017</v>
+        <v>416.0833298945831</v>
       </c>
       <c r="AB4" t="n">
-        <v>479.3476405640656</v>
+        <v>569.3035682627618</v>
       </c>
       <c r="AC4" t="n">
-        <v>433.5993745172693</v>
+        <v>514.9700347303394</v>
       </c>
       <c r="AD4" t="n">
-        <v>350337.8049634016</v>
+        <v>416083.3298945831</v>
       </c>
       <c r="AE4" t="n">
-        <v>479347.6405640655</v>
+        <v>569303.5682627618</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358700276627203e-06</v>
+        <v>2.758631307258367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>433599.3745172693</v>
+        <v>514970.0347303394</v>
       </c>
     </row>
     <row r="5">
@@ -11070,28 +11070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.2805444701724</v>
+        <v>408.0260694013539</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.3233412959835</v>
+        <v>558.2792689946798</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.6272188986318</v>
+        <v>504.997879111702</v>
       </c>
       <c r="AD5" t="n">
-        <v>342280.5444701724</v>
+        <v>408026.0694013539</v>
       </c>
       <c r="AE5" t="n">
-        <v>468323.3412959835</v>
+        <v>558279.2689946798</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.377027303181091e-06</v>
+        <v>2.795841507396112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>423627.2188986319</v>
+        <v>504997.879111702</v>
       </c>
     </row>
     <row r="6">
@@ -11176,28 +11176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.7556399179824</v>
+        <v>398.5011648491639</v>
       </c>
       <c r="AB6" t="n">
-        <v>455.2909466785452</v>
+        <v>545.2468743772416</v>
       </c>
       <c r="AC6" t="n">
-        <v>411.8386177324011</v>
+        <v>493.2092779454712</v>
       </c>
       <c r="AD6" t="n">
-        <v>332755.6399179824</v>
+        <v>398501.1648491639</v>
       </c>
       <c r="AE6" t="n">
-        <v>455290.9466785452</v>
+        <v>545246.8743772416</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397055572706224e-06</v>
+        <v>2.83650581893905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>411838.6177324011</v>
+        <v>493209.2779454712</v>
       </c>
     </row>
     <row r="7">
@@ -11282,28 +11282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>314.1189235231326</v>
+        <v>390.7508141373917</v>
       </c>
       <c r="AB7" t="n">
-        <v>429.7913691132119</v>
+        <v>534.642502612053</v>
       </c>
       <c r="AC7" t="n">
-        <v>388.7726840610213</v>
+        <v>483.6169725382231</v>
       </c>
       <c r="AD7" t="n">
-        <v>314118.9235231326</v>
+        <v>390750.8141373917</v>
       </c>
       <c r="AE7" t="n">
-        <v>429791.3691132119</v>
+        <v>534642.5026120531</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.409041602730919e-06</v>
+        <v>2.860841603839263e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>388772.6840610213</v>
+        <v>483616.9725382231</v>
       </c>
     </row>
     <row r="8">
@@ -11388,28 +11388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>307.0725135894751</v>
+        <v>372.9032898666772</v>
       </c>
       <c r="AB8" t="n">
-        <v>420.1501601763153</v>
+        <v>510.2227325276609</v>
       </c>
       <c r="AC8" t="n">
-        <v>380.0516185735403</v>
+        <v>461.5277910373228</v>
       </c>
       <c r="AD8" t="n">
-        <v>307072.5135894751</v>
+        <v>372903.2898666772</v>
       </c>
       <c r="AE8" t="n">
-        <v>420150.1601763153</v>
+        <v>510222.7325276609</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.415047505947593e-06</v>
+        <v>2.873035663800014e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>380051.6185735404</v>
+        <v>461527.7910373228</v>
       </c>
     </row>
     <row r="9">
@@ -11494,28 +11494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>306.3418195111684</v>
+        <v>372.1725957883705</v>
       </c>
       <c r="AB9" t="n">
-        <v>419.1503923024285</v>
+        <v>509.2229646537739</v>
       </c>
       <c r="AC9" t="n">
-        <v>379.1472671423543</v>
+        <v>460.6234396061367</v>
       </c>
       <c r="AD9" t="n">
-        <v>306341.8195111684</v>
+        <v>372172.5957883705</v>
       </c>
       <c r="AE9" t="n">
-        <v>419150.3923024285</v>
+        <v>509222.9646537739</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.419197507741089e-06</v>
+        <v>2.88146160222783e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>379147.2671423543</v>
+        <v>460623.4396061367</v>
       </c>
     </row>
   </sheetData>
@@ -11791,28 +11791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.8517042110446</v>
+        <v>367.0917814354274</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.1655978744605</v>
+        <v>502.2711703063677</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.4017232703181</v>
+        <v>454.3351147543422</v>
       </c>
       <c r="AD2" t="n">
-        <v>296851.7042110446</v>
+        <v>367091.7814354274</v>
       </c>
       <c r="AE2" t="n">
-        <v>406165.5978744605</v>
+        <v>502271.1703063677</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401891641418796e-06</v>
+        <v>3.121738862299069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>367401.7232703181</v>
+        <v>454335.1147543422</v>
       </c>
     </row>
     <row r="3">
@@ -11897,28 +11897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.9166537549209</v>
+        <v>329.1103321908612</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.9436294329449</v>
+        <v>450.3032758266712</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.8276058519911</v>
+        <v>407.3269631863899</v>
       </c>
       <c r="AD3" t="n">
-        <v>268916.6537549209</v>
+        <v>329110.3321908612</v>
       </c>
       <c r="AE3" t="n">
-        <v>367943.6294329449</v>
+        <v>450303.2758266712</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.508257095019467e-06</v>
+        <v>3.358593951737535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.07682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>332827.6058519911</v>
+        <v>407326.9631863899</v>
       </c>
     </row>
     <row r="4">
@@ -12003,28 +12003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.4674185917799</v>
+        <v>310.746348373744</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.7005719597621</v>
+        <v>425.1768630063037</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.9937103552981</v>
+        <v>384.5985799404564</v>
       </c>
       <c r="AD4" t="n">
-        <v>250467.4185917799</v>
+        <v>310746.3483737439</v>
       </c>
       <c r="AE4" t="n">
-        <v>342700.5719597621</v>
+        <v>425176.8630063037</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.534337758727919e-06</v>
+        <v>3.416670495635627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>309993.7103552981</v>
+        <v>384598.5799404564</v>
       </c>
     </row>
   </sheetData>
@@ -12300,28 +12300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>703.1104973659336</v>
+        <v>821.7121189327089</v>
       </c>
       <c r="AB2" t="n">
-        <v>962.0268015420005</v>
+        <v>1124.302772503926</v>
       </c>
       <c r="AC2" t="n">
-        <v>870.2123138159274</v>
+        <v>1017.000893865003</v>
       </c>
       <c r="AD2" t="n">
-        <v>703110.4973659336</v>
+        <v>821712.1189327089</v>
       </c>
       <c r="AE2" t="n">
-        <v>962026.8015420005</v>
+        <v>1124302.772503926</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.723759635769763e-07</v>
+        <v>1.649456777311179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.85807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>870212.3138159274</v>
+        <v>1017000.893865003</v>
       </c>
     </row>
     <row r="3">
@@ -12406,28 +12406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.7722119046389</v>
+        <v>610.8275728517613</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.1212239946384</v>
+        <v>835.7612329864138</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.2029878800927</v>
+        <v>755.9973539084474</v>
       </c>
       <c r="AD3" t="n">
-        <v>527772.2119046389</v>
+        <v>610827.5728517612</v>
       </c>
       <c r="AE3" t="n">
-        <v>722121.2239946384</v>
+        <v>835761.2329864138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.082501411683445e-06</v>
+        <v>2.046754340443981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>653202.9878800927</v>
+        <v>755997.3539084474</v>
       </c>
     </row>
     <row r="4">
@@ -12512,28 +12512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.1413803302636</v>
+        <v>563.1114004228143</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.9506189105932</v>
+        <v>770.4738607801709</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.2521738777499</v>
+        <v>696.9409168741659</v>
       </c>
       <c r="AD4" t="n">
-        <v>480141.3803302636</v>
+        <v>563111.4004228143</v>
       </c>
       <c r="AE4" t="n">
-        <v>656950.6189105932</v>
+        <v>770473.8607801709</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158717053662616e-06</v>
+        <v>2.190860107278963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.44401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>594252.1738777499</v>
+        <v>696940.9168741659</v>
       </c>
     </row>
     <row r="5">
@@ -12618,28 +12618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>447.6743333946926</v>
+        <v>530.7296048332639</v>
       </c>
       <c r="AB5" t="n">
-        <v>612.5277729483238</v>
+        <v>726.1676594705509</v>
       </c>
       <c r="AC5" t="n">
-        <v>554.0689819862638</v>
+        <v>656.8632372333919</v>
       </c>
       <c r="AD5" t="n">
-        <v>447674.3333946926</v>
+        <v>530729.6048332639</v>
       </c>
       <c r="AE5" t="n">
-        <v>612527.7729483237</v>
+        <v>726167.6594705509</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.203369608743663e-06</v>
+        <v>2.275287536137386e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>554068.9819862638</v>
+        <v>656863.237233392</v>
       </c>
     </row>
     <row r="6">
@@ -12724,28 +12724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>438.177634290665</v>
+        <v>521.2329057292363</v>
       </c>
       <c r="AB6" t="n">
-        <v>599.5339702693979</v>
+        <v>713.1738567916248</v>
       </c>
       <c r="AC6" t="n">
-        <v>542.3152895980978</v>
+        <v>645.109544845226</v>
       </c>
       <c r="AD6" t="n">
-        <v>438177.634290665</v>
+        <v>521232.9057292363</v>
       </c>
       <c r="AE6" t="n">
-        <v>599533.9702693978</v>
+        <v>713173.8567916248</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.225624097610423e-06</v>
+        <v>2.317365515150426e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>542315.2895980978</v>
+        <v>645109.544845226</v>
       </c>
     </row>
     <row r="7">
@@ -12830,28 +12830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>430.1517729938887</v>
+        <v>501.5004958140114</v>
       </c>
       <c r="AB7" t="n">
-        <v>588.5526327671375</v>
+        <v>686.1751030131278</v>
       </c>
       <c r="AC7" t="n">
-        <v>532.3819955346493</v>
+        <v>620.6875142343598</v>
       </c>
       <c r="AD7" t="n">
-        <v>430151.7729938887</v>
+        <v>501500.4958140114</v>
       </c>
       <c r="AE7" t="n">
-        <v>588552.6327671375</v>
+        <v>686175.1030131278</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.242685872408272e-06</v>
+        <v>2.349625299060424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>532381.9955346492</v>
+        <v>620687.5142343598</v>
       </c>
     </row>
     <row r="8">
@@ -12936,28 +12936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>422.27755359868</v>
+        <v>493.4556842182104</v>
       </c>
       <c r="AB8" t="n">
-        <v>577.7787784045704</v>
+        <v>675.1678368757139</v>
       </c>
       <c r="AC8" t="n">
-        <v>522.636382711246</v>
+        <v>610.7307661283055</v>
       </c>
       <c r="AD8" t="n">
-        <v>422277.55359868</v>
+        <v>493455.6842182104</v>
       </c>
       <c r="AE8" t="n">
-        <v>577778.7784045704</v>
+        <v>675167.8368757139</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.258096507709555e-06</v>
+        <v>2.378763168398486e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>522636.382711246</v>
+        <v>610730.7661283055</v>
       </c>
     </row>
     <row r="9">
@@ -13042,28 +13042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>418.1979785033935</v>
+        <v>489.3761091229239</v>
       </c>
       <c r="AB9" t="n">
-        <v>572.1969237810486</v>
+        <v>669.5859822521919</v>
       </c>
       <c r="AC9" t="n">
-        <v>517.5872524588108</v>
+        <v>605.6816358758703</v>
       </c>
       <c r="AD9" t="n">
-        <v>418197.9785033935</v>
+        <v>489376.1091229239</v>
       </c>
       <c r="AE9" t="n">
-        <v>572196.9237810485</v>
+        <v>669585.9822521919</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.263265292220544e-06</v>
+        <v>2.388536118362805e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>517587.2524588108</v>
+        <v>605681.6358758702</v>
       </c>
     </row>
     <row r="10">
@@ -13148,28 +13148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>412.5123024862852</v>
+        <v>483.6904331058157</v>
       </c>
       <c r="AB10" t="n">
-        <v>564.4175310201182</v>
+        <v>661.8065894912615</v>
       </c>
       <c r="AC10" t="n">
-        <v>510.5503140245374</v>
+        <v>598.6446974415968</v>
       </c>
       <c r="AD10" t="n">
-        <v>412512.3024862852</v>
+        <v>483690.4331058157</v>
       </c>
       <c r="AE10" t="n">
-        <v>564417.5310201182</v>
+        <v>661806.5894912615</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271616707935059e-06</v>
+        <v>2.404326671777376e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.25260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>510550.3140245374</v>
+        <v>598644.6974415968</v>
       </c>
     </row>
     <row r="11">
@@ -13254,28 +13254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>406.6616547748302</v>
+        <v>477.8397853943608</v>
       </c>
       <c r="AB11" t="n">
-        <v>556.4124167089451</v>
+        <v>653.8014751800885</v>
       </c>
       <c r="AC11" t="n">
-        <v>503.3091965879741</v>
+        <v>591.4035800050336</v>
       </c>
       <c r="AD11" t="n">
-        <v>406661.6547748302</v>
+        <v>477839.7853943608</v>
       </c>
       <c r="AE11" t="n">
-        <v>556412.4167089451</v>
+        <v>653801.4751800884</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.279704898512441e-06</v>
+        <v>2.419619528665987e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>503309.1965879741</v>
+        <v>591403.5800050336</v>
       </c>
     </row>
     <row r="12">
@@ -13360,28 +13360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>401.6619376904035</v>
+        <v>472.840068309934</v>
       </c>
       <c r="AB12" t="n">
-        <v>549.5715832220818</v>
+        <v>646.9606416932252</v>
       </c>
       <c r="AC12" t="n">
-        <v>497.121242647927</v>
+        <v>585.2156260649865</v>
       </c>
       <c r="AD12" t="n">
-        <v>401661.9376904035</v>
+        <v>472840.068309934</v>
       </c>
       <c r="AE12" t="n">
-        <v>549571.5832220818</v>
+        <v>646960.6416932251</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.286285526940784e-06</v>
+        <v>2.432061941815004e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>497121.242647927</v>
+        <v>585215.6260649865</v>
       </c>
     </row>
     <row r="13">
@@ -13466,28 +13466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>398.693339790208</v>
+        <v>469.8714704097385</v>
       </c>
       <c r="AB13" t="n">
-        <v>545.5098166097381</v>
+        <v>642.8988750808815</v>
       </c>
       <c r="AC13" t="n">
-        <v>493.4471253403401</v>
+        <v>581.5415087573996</v>
       </c>
       <c r="AD13" t="n">
-        <v>398693.339790208</v>
+        <v>469871.4704097385</v>
       </c>
       <c r="AE13" t="n">
-        <v>545509.816609738</v>
+        <v>642898.8750808814</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.285854794898201e-06</v>
+        <v>2.431247529317977e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>493447.1253403401</v>
+        <v>581541.5087573996</v>
       </c>
     </row>
     <row r="14">
@@ -13572,28 +13572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>394.421392390359</v>
+        <v>465.5995230098895</v>
       </c>
       <c r="AB14" t="n">
-        <v>539.6647497122466</v>
+        <v>637.0538081833899</v>
       </c>
       <c r="AC14" t="n">
-        <v>488.1599034239424</v>
+        <v>576.2542868410018</v>
       </c>
       <c r="AD14" t="n">
-        <v>394421.392390359</v>
+        <v>465599.5230098895</v>
       </c>
       <c r="AE14" t="n">
-        <v>539664.7497122466</v>
+        <v>637053.8081833899</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.289994608418577e-06</v>
+        <v>2.439074938317177e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.07682291666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>488159.9034239423</v>
+        <v>576254.2868410018</v>
       </c>
     </row>
     <row r="15">
@@ -13678,28 +13678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>390.142578537755</v>
+        <v>461.3207091572855</v>
       </c>
       <c r="AB15" t="n">
-        <v>533.810287831169</v>
+        <v>631.1993463023126</v>
       </c>
       <c r="AC15" t="n">
-        <v>482.8641831680061</v>
+        <v>570.9585665850656</v>
       </c>
       <c r="AD15" t="n">
-        <v>390142.5785377549</v>
+        <v>461320.7091572855</v>
       </c>
       <c r="AE15" t="n">
-        <v>533810.2878311691</v>
+        <v>631199.3463023126</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.293368676085473e-06</v>
+        <v>2.445454502877219e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>482864.1831680061</v>
+        <v>570958.5665850656</v>
       </c>
     </row>
     <row r="16">
@@ -13784,28 +13784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>386.5300196257546</v>
+        <v>457.7081502452851</v>
       </c>
       <c r="AB16" t="n">
-        <v>528.8674253529191</v>
+        <v>626.2564838240625</v>
       </c>
       <c r="AC16" t="n">
-        <v>478.3930605473292</v>
+        <v>566.4874439643886</v>
       </c>
       <c r="AD16" t="n">
-        <v>386530.0196257546</v>
+        <v>457708.1502452851</v>
       </c>
       <c r="AE16" t="n">
-        <v>528867.4253529191</v>
+        <v>626256.4838240625</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.297819573858825e-06</v>
+        <v>2.453870098679827e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>478393.0605473292</v>
+        <v>566487.4439643886</v>
       </c>
     </row>
     <row r="17">
@@ -13890,28 +13890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>384.4796583885541</v>
+        <v>455.6577890080846</v>
       </c>
       <c r="AB17" t="n">
-        <v>526.0620306526278</v>
+        <v>623.4510891237711</v>
       </c>
       <c r="AC17" t="n">
-        <v>475.8554087798374</v>
+        <v>563.9497921968969</v>
       </c>
       <c r="AD17" t="n">
-        <v>384479.6583885541</v>
+        <v>455657.7890080846</v>
       </c>
       <c r="AE17" t="n">
-        <v>526062.0306526277</v>
+        <v>623451.0891237711</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.297005968889502e-06</v>
+        <v>2.452331763963221e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH17" t="n">
-        <v>475855.4087798374</v>
+        <v>563949.7921968969</v>
       </c>
     </row>
     <row r="18">
@@ -13996,28 +13996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>384.4231358818441</v>
+        <v>455.6012665013745</v>
       </c>
       <c r="AB18" t="n">
-        <v>525.9846940653501</v>
+        <v>623.3737525364934</v>
       </c>
       <c r="AC18" t="n">
-        <v>475.7854530879069</v>
+        <v>563.8798365049664</v>
       </c>
       <c r="AD18" t="n">
-        <v>384423.1358818441</v>
+        <v>455601.2665013745</v>
       </c>
       <c r="AE18" t="n">
-        <v>525984.6940653501</v>
+        <v>623373.7525364934</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.295833420551361e-06</v>
+        <v>2.450114752165759e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>475785.4530879069</v>
+        <v>563879.8365049664</v>
       </c>
     </row>
     <row r="19">
@@ -14102,28 +14102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>385.6459567077102</v>
+        <v>456.8240873272406</v>
       </c>
       <c r="AB19" t="n">
-        <v>527.6578114663475</v>
+        <v>625.0468699374909</v>
       </c>
       <c r="AC19" t="n">
-        <v>477.2988905123881</v>
+        <v>565.3932739294476</v>
       </c>
       <c r="AD19" t="n">
-        <v>385645.9567077102</v>
+        <v>456824.0873272407</v>
       </c>
       <c r="AE19" t="n">
-        <v>527657.8114663475</v>
+        <v>625046.8699374909</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.295737702319676e-06</v>
+        <v>2.449933771610865e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>477298.8905123881</v>
+        <v>565393.2739294475</v>
       </c>
     </row>
   </sheetData>
@@ -14399,28 +14399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.6284649287</v>
+        <v>335.1402469677197</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.812828533143</v>
+        <v>458.5536712454341</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.9956041959597</v>
+        <v>414.7899524458888</v>
       </c>
       <c r="AD2" t="n">
-        <v>266628.4649287</v>
+        <v>335140.2469677198</v>
       </c>
       <c r="AE2" t="n">
-        <v>364812.828533143</v>
+        <v>458553.6712454341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476138009395739e-06</v>
+        <v>3.384144916071674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>329995.6041959597</v>
+        <v>414789.9524458888</v>
       </c>
     </row>
     <row r="3">
@@ -14505,28 +14505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.3497758812075</v>
+        <v>303.7762170656586</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.0159462598414</v>
+        <v>415.6400218500902</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.2831963011168</v>
+        <v>375.9719215191514</v>
       </c>
       <c r="AD3" t="n">
-        <v>235349.7758812075</v>
+        <v>303776.2170656585</v>
       </c>
       <c r="AE3" t="n">
-        <v>322015.9462598414</v>
+        <v>415640.0218500902</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.560934685034905e-06</v>
+        <v>3.578546954998596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>291283.1963011168</v>
+        <v>375971.9215191514</v>
       </c>
     </row>
     <row r="4">
@@ -14611,28 +14611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.8902087134529</v>
+        <v>305.316649897904</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.1236344200188</v>
+        <v>417.7477100102687</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.1897296614464</v>
+        <v>377.8784548794813</v>
       </c>
       <c r="AD4" t="n">
-        <v>236890.2087134529</v>
+        <v>305316.649897904</v>
       </c>
       <c r="AE4" t="n">
-        <v>324123.6344200188</v>
+        <v>417747.7100102687</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.560762857931279e-06</v>
+        <v>3.578153029894388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>293189.7296614465</v>
+        <v>377878.4548794813</v>
       </c>
     </row>
   </sheetData>
@@ -14908,28 +14908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.4732067600911</v>
+        <v>653.5502807473266</v>
       </c>
       <c r="AB2" t="n">
-        <v>769.6006560557154</v>
+        <v>894.2163267219764</v>
       </c>
       <c r="AC2" t="n">
-        <v>696.1510495830621</v>
+        <v>808.8735755401273</v>
       </c>
       <c r="AD2" t="n">
-        <v>562473.2067600911</v>
+        <v>653550.2807473266</v>
       </c>
       <c r="AE2" t="n">
-        <v>769600.6560557154</v>
+        <v>894216.3267219764</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.010558175235389e-06</v>
+        <v>1.980680057613895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.02864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>696151.0495830621</v>
+        <v>808873.5755401272</v>
       </c>
     </row>
     <row r="3">
@@ -15014,28 +15014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>440.5650158442742</v>
+        <v>520.3320505108733</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.8004910348868</v>
+        <v>711.9412669389332</v>
       </c>
       <c r="AC3" t="n">
-        <v>545.2700582063194</v>
+        <v>643.9945916381246</v>
       </c>
       <c r="AD3" t="n">
-        <v>440565.0158442743</v>
+        <v>520332.0505108733</v>
       </c>
       <c r="AE3" t="n">
-        <v>602800.4910348868</v>
+        <v>711941.2669389332</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.193737393459372e-06</v>
+        <v>2.339708793808162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>545270.0582063193</v>
+        <v>643994.5916381245</v>
       </c>
     </row>
     <row r="4">
@@ -15120,28 +15120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>403.2913840749554</v>
+        <v>482.9730778869827</v>
       </c>
       <c r="AB4" t="n">
-        <v>551.8010636515268</v>
+        <v>660.8250724333756</v>
       </c>
       <c r="AC4" t="n">
-        <v>499.1379445942812</v>
+        <v>597.7568549941477</v>
       </c>
       <c r="AD4" t="n">
-        <v>403291.3840749554</v>
+        <v>482973.0778869827</v>
       </c>
       <c r="AE4" t="n">
-        <v>551801.0636515268</v>
+        <v>660825.0724333755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.260510858312444e-06</v>
+        <v>2.470583862115293e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>499137.9445942813</v>
+        <v>597756.8549941477</v>
       </c>
     </row>
     <row r="5">
@@ -15226,28 +15226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>390.2368994355547</v>
+        <v>458.6939842900683</v>
       </c>
       <c r="AB5" t="n">
-        <v>533.9393418446831</v>
+        <v>627.6053454560636</v>
       </c>
       <c r="AC5" t="n">
-        <v>482.9809204475987</v>
+        <v>567.7075721353706</v>
       </c>
       <c r="AD5" t="n">
-        <v>390236.8994355547</v>
+        <v>458693.9842900683</v>
       </c>
       <c r="AE5" t="n">
-        <v>533939.341844683</v>
+        <v>627605.3454560635</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.293499537297233e-06</v>
+        <v>2.535241217024107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>482980.9204475987</v>
+        <v>567707.5721353706</v>
       </c>
     </row>
     <row r="6">
@@ -15332,28 +15332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.2915727456738</v>
+        <v>448.5780653995952</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.3317071107404</v>
+        <v>613.7642989472738</v>
       </c>
       <c r="AC6" t="n">
-        <v>470.6719792742282</v>
+        <v>555.1874956793489</v>
       </c>
       <c r="AD6" t="n">
-        <v>380291.5727456738</v>
+        <v>448578.0653995952</v>
       </c>
       <c r="AE6" t="n">
-        <v>520331.7071107404</v>
+        <v>613764.2989472738</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316636393598781e-06</v>
+        <v>2.580589135625311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>470671.9792742282</v>
+        <v>555187.4956793489</v>
       </c>
     </row>
     <row r="7">
@@ -15438,28 +15438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>372.6262504200092</v>
+        <v>440.9127430739306</v>
       </c>
       <c r="AB7" t="n">
-        <v>509.8436749346121</v>
+        <v>603.2762667711454</v>
       </c>
       <c r="AC7" t="n">
-        <v>461.1849101689439</v>
+        <v>545.7004265740646</v>
       </c>
       <c r="AD7" t="n">
-        <v>372626.2504200092</v>
+        <v>440912.7430739306</v>
       </c>
       <c r="AE7" t="n">
-        <v>509843.6749346121</v>
+        <v>603276.2667711454</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330518507379711e-06</v>
+        <v>2.607797886786034e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>461184.9101689439</v>
+        <v>545700.4265740647</v>
       </c>
     </row>
     <row r="8">
@@ -15544,28 +15544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>366.418664557835</v>
+        <v>434.7051572117563</v>
       </c>
       <c r="AB8" t="n">
-        <v>501.3501820986251</v>
+        <v>594.7827739351583</v>
       </c>
       <c r="AC8" t="n">
-        <v>453.5020243685314</v>
+        <v>538.0175407736523</v>
       </c>
       <c r="AD8" t="n">
-        <v>366418.664557835</v>
+        <v>434705.1572117563</v>
       </c>
       <c r="AE8" t="n">
-        <v>501350.1820986251</v>
+        <v>594782.7739351583</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.339499588159129e-06</v>
+        <v>2.625400680995749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>453502.0243685314</v>
+        <v>538017.5407736523</v>
       </c>
     </row>
     <row r="9">
@@ -15650,28 +15650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>347.6299023246858</v>
+        <v>427.2262552821416</v>
       </c>
       <c r="AB9" t="n">
-        <v>475.6425687095415</v>
+        <v>584.5498103691925</v>
       </c>
       <c r="AC9" t="n">
-        <v>430.24790952044</v>
+        <v>528.7611968883676</v>
       </c>
       <c r="AD9" t="n">
-        <v>347629.9023246858</v>
+        <v>427226.2552821416</v>
       </c>
       <c r="AE9" t="n">
-        <v>475642.5687095415</v>
+        <v>584549.8103691925</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.350943624609358e-06</v>
+        <v>2.647830834282366e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>430247.90952044</v>
+        <v>528761.1968883676</v>
       </c>
     </row>
     <row r="10">
@@ -15756,28 +15756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>341.9467492283397</v>
+        <v>421.5431021857954</v>
       </c>
       <c r="AB10" t="n">
-        <v>467.8666279201013</v>
+        <v>576.7738695797523</v>
       </c>
       <c r="AC10" t="n">
-        <v>423.2140936063425</v>
+        <v>521.7273809742702</v>
       </c>
       <c r="AD10" t="n">
-        <v>341946.7492283397</v>
+        <v>421543.1021857954</v>
       </c>
       <c r="AE10" t="n">
-        <v>467866.6279201013</v>
+        <v>576773.8695797523</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.355894414291087e-06</v>
+        <v>2.657534313638968e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>423214.0936063426</v>
+        <v>521727.3809742702</v>
       </c>
     </row>
     <row r="11">
@@ -15862,28 +15862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>336.7305820655483</v>
+        <v>416.326935023004</v>
       </c>
       <c r="AB11" t="n">
-        <v>460.729637886916</v>
+        <v>569.6368795465669</v>
       </c>
       <c r="AC11" t="n">
-        <v>416.758247885096</v>
+        <v>515.2715352530237</v>
       </c>
       <c r="AD11" t="n">
-        <v>336730.5820655483</v>
+        <v>416326.935023004</v>
       </c>
       <c r="AE11" t="n">
-        <v>460729.6378869159</v>
+        <v>569636.8795465669</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.36072081227227e-06</v>
+        <v>2.666993986981585e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>416758.247885096</v>
+        <v>515271.5352530237</v>
       </c>
     </row>
     <row r="12">
@@ -15968,28 +15968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>336.6251147694132</v>
+        <v>416.2214677268689</v>
       </c>
       <c r="AB12" t="n">
-        <v>460.5853328794553</v>
+        <v>569.4925745391064</v>
       </c>
       <c r="AC12" t="n">
-        <v>416.6277151450141</v>
+        <v>515.1410025129417</v>
       </c>
       <c r="AD12" t="n">
-        <v>336625.1147694133</v>
+        <v>416221.4677268689</v>
       </c>
       <c r="AE12" t="n">
-        <v>460585.3328794554</v>
+        <v>569492.5745391063</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.35980031368823e-06</v>
+        <v>2.665189822478096e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH12" t="n">
-        <v>416627.7151450141</v>
+        <v>515141.0025129417</v>
       </c>
     </row>
     <row r="13">
@@ -16074,28 +16074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>337.2497350900505</v>
+        <v>416.8460880475062</v>
       </c>
       <c r="AB13" t="n">
-        <v>461.4399659584549</v>
+        <v>570.3472076181059</v>
       </c>
       <c r="AC13" t="n">
-        <v>417.400783242439</v>
+        <v>515.9140706103666</v>
       </c>
       <c r="AD13" t="n">
-        <v>337249.7350900505</v>
+        <v>416846.0880475062</v>
       </c>
       <c r="AE13" t="n">
-        <v>461439.9659584549</v>
+        <v>570347.2076181059</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.360024218749213e-06</v>
+        <v>2.665628673303269e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>417400.783242439</v>
+        <v>515914.0706103666</v>
       </c>
     </row>
   </sheetData>
@@ -16371,28 +16371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.2109591391147</v>
+        <v>728.9385136785843</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.0729725381029</v>
+        <v>997.3658329126304</v>
       </c>
       <c r="AC2" t="n">
-        <v>772.5614467380113</v>
+        <v>902.1786376311865</v>
       </c>
       <c r="AD2" t="n">
-        <v>624210.9591391147</v>
+        <v>728938.5136785842</v>
       </c>
       <c r="AE2" t="n">
-        <v>854072.9725381029</v>
+        <v>997365.8329126304</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.385664505792985e-07</v>
+        <v>1.804584606475293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>772561.4467380113</v>
+        <v>902178.6376311865</v>
       </c>
     </row>
     <row r="3">
@@ -16477,28 +16477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.5423514448222</v>
+        <v>570.5386878637157</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.39451292847</v>
+        <v>780.6362031256081</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.0354576595347</v>
+        <v>706.1333795290917</v>
       </c>
       <c r="AD3" t="n">
-        <v>477542.3514448222</v>
+        <v>570538.6878637157</v>
       </c>
       <c r="AE3" t="n">
-        <v>653394.51292847</v>
+        <v>780636.203125608</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.1366930896378e-06</v>
+        <v>2.185523305868374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>591035.4576595346</v>
+        <v>706133.3795290918</v>
       </c>
     </row>
     <row r="4">
@@ -16583,28 +16583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.2912542760989</v>
+        <v>517.1666073806774</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.0036271980059</v>
+        <v>707.6101679987044</v>
       </c>
       <c r="AC4" t="n">
-        <v>553.5948599707131</v>
+        <v>640.0768467020155</v>
       </c>
       <c r="AD4" t="n">
-        <v>447291.2542760989</v>
+        <v>517166.6073806774</v>
       </c>
       <c r="AE4" t="n">
-        <v>612003.6271980059</v>
+        <v>707610.1679987044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.207772971465382e-06</v>
+        <v>2.322188813672289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.13802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>553594.859970713</v>
+        <v>640076.8467020155</v>
       </c>
     </row>
     <row r="5">
@@ -16689,28 +16689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>420.861305178075</v>
+        <v>502.2971051855354</v>
       </c>
       <c r="AB5" t="n">
-        <v>575.8410048350282</v>
+        <v>687.2650590991723</v>
       </c>
       <c r="AC5" t="n">
-        <v>520.8835475314985</v>
+        <v>621.6734464413151</v>
       </c>
       <c r="AD5" t="n">
-        <v>420861.305178075</v>
+        <v>502297.1051855354</v>
       </c>
       <c r="AE5" t="n">
-        <v>575841.0048350282</v>
+        <v>687265.0590991722</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.243337288195987e-06</v>
+        <v>2.390568435032341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>520883.5475314985</v>
+        <v>621673.4464413151</v>
       </c>
     </row>
     <row r="6">
@@ -16795,28 +16795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>409.6651834811586</v>
+        <v>479.6257879317578</v>
       </c>
       <c r="AB6" t="n">
-        <v>560.5219771912782</v>
+        <v>656.245162644626</v>
       </c>
       <c r="AC6" t="n">
-        <v>507.0265463856778</v>
+        <v>593.6140453676926</v>
       </c>
       <c r="AD6" t="n">
-        <v>409665.1834811586</v>
+        <v>479625.7879317577</v>
       </c>
       <c r="AE6" t="n">
-        <v>560521.9771912782</v>
+        <v>656245.162644626</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.268371252063246e-06</v>
+        <v>2.438701314495517e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>507026.5463856778</v>
+        <v>593614.0453676926</v>
       </c>
     </row>
     <row r="7">
@@ -16901,28 +16901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>401.5231244087293</v>
+        <v>471.3131366587362</v>
       </c>
       <c r="AB7" t="n">
-        <v>549.3816527660854</v>
+        <v>644.8714264445862</v>
       </c>
       <c r="AC7" t="n">
-        <v>496.9494388880818</v>
+        <v>583.3258025874455</v>
       </c>
       <c r="AD7" t="n">
-        <v>401523.1244087293</v>
+        <v>471313.1366587362</v>
       </c>
       <c r="AE7" t="n">
-        <v>549381.6527660853</v>
+        <v>644871.4264445861</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.285263693114862e-06</v>
+        <v>2.47118046295509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>496949.4388880818</v>
+        <v>583325.8025874456</v>
       </c>
     </row>
     <row r="8">
@@ -17007,28 +17007,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>393.7801068491897</v>
+        <v>463.5701190991966</v>
       </c>
       <c r="AB8" t="n">
-        <v>538.7873145432974</v>
+        <v>634.2770882217982</v>
       </c>
       <c r="AC8" t="n">
-        <v>487.3662094360296</v>
+        <v>573.7425731353934</v>
       </c>
       <c r="AD8" t="n">
-        <v>393780.1068491897</v>
+        <v>463570.1190991966</v>
       </c>
       <c r="AE8" t="n">
-        <v>538787.3145432974</v>
+        <v>634277.0882217982</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.298524137461298e-06</v>
+        <v>2.496676360158564e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>487366.2094360297</v>
+        <v>573742.5731353934</v>
       </c>
     </row>
     <row r="9">
@@ -17113,28 +17113,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>389.5932052508639</v>
+        <v>459.3832175008709</v>
       </c>
       <c r="AB9" t="n">
-        <v>533.058611063406</v>
+        <v>628.5483847419068</v>
       </c>
       <c r="AC9" t="n">
-        <v>482.1842453759733</v>
+        <v>568.560609075337</v>
       </c>
       <c r="AD9" t="n">
-        <v>389593.2052508639</v>
+        <v>459383.2175008709</v>
       </c>
       <c r="AE9" t="n">
-        <v>533058.611063406</v>
+        <v>628548.3847419068</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.305934385772541e-06</v>
+        <v>2.510924067419328e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.15494791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>482184.2453759733</v>
+        <v>568560.6090753369</v>
       </c>
     </row>
     <row r="10">
@@ -17219,28 +17219,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>384.1232139656397</v>
+        <v>453.9132262156467</v>
       </c>
       <c r="AB10" t="n">
-        <v>525.5743276679781</v>
+        <v>621.0641013464788</v>
       </c>
       <c r="AC10" t="n">
-        <v>475.4142514835473</v>
+        <v>561.7906151829111</v>
       </c>
       <c r="AD10" t="n">
-        <v>384123.2139656397</v>
+        <v>453913.2262156467</v>
       </c>
       <c r="AE10" t="n">
-        <v>525574.3276679781</v>
+        <v>621064.1013464788</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.313564016435104e-06</v>
+        <v>2.525593581802945e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>475414.2514835473</v>
+        <v>561790.615182911</v>
       </c>
     </row>
     <row r="11">
@@ -17325,28 +17325,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>377.737014913735</v>
+        <v>447.527027163742</v>
       </c>
       <c r="AB11" t="n">
-        <v>516.8364483859442</v>
+        <v>612.326222064445</v>
       </c>
       <c r="AC11" t="n">
-        <v>467.5103031365001</v>
+        <v>553.8866668358638</v>
       </c>
       <c r="AD11" t="n">
-        <v>377737.014913735</v>
+        <v>447527.027163742</v>
       </c>
       <c r="AE11" t="n">
-        <v>516836.4483859442</v>
+        <v>612326.222064445</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.320145486974694e-06</v>
+        <v>2.538247795488492e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>467510.3031365001</v>
+        <v>553886.6668358638</v>
       </c>
     </row>
     <row r="12">
@@ -17431,28 +17431,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>361.5539553963854</v>
+        <v>442.9044145492742</v>
       </c>
       <c r="AB12" t="n">
-        <v>494.6940724081083</v>
+        <v>606.0013595500548</v>
       </c>
       <c r="AC12" t="n">
-        <v>447.4811644449689</v>
+        <v>548.1654403228466</v>
       </c>
       <c r="AD12" t="n">
-        <v>361553.9553963855</v>
+        <v>442904.4145492743</v>
       </c>
       <c r="AE12" t="n">
-        <v>494694.0724081083</v>
+        <v>606001.3595500548</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.324094369298449e-06</v>
+        <v>2.545840323699822e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>447481.1644449689</v>
+        <v>548165.4403228466</v>
       </c>
     </row>
     <row r="13">
@@ -17537,28 +17537,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>357.0617959101261</v>
+        <v>438.4122550630149</v>
       </c>
       <c r="AB13" t="n">
-        <v>488.5477016189186</v>
+        <v>599.854988760865</v>
       </c>
       <c r="AC13" t="n">
-        <v>441.9213946574139</v>
+        <v>542.6056705352917</v>
       </c>
       <c r="AD13" t="n">
-        <v>357061.7959101261</v>
+        <v>438412.2550630149</v>
       </c>
       <c r="AE13" t="n">
-        <v>488547.7016189186</v>
+        <v>599854.9887608651</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.328213882339897e-06</v>
+        <v>2.553760924117812e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>441921.3946574139</v>
+        <v>542605.6705352917</v>
       </c>
     </row>
     <row r="14">
@@ -17643,28 +17643,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>354.7387274575939</v>
+        <v>436.0891866104827</v>
       </c>
       <c r="AB14" t="n">
-        <v>485.369176875617</v>
+        <v>596.6764640175635</v>
       </c>
       <c r="AC14" t="n">
-        <v>439.0462238545256</v>
+        <v>539.7304997324034</v>
       </c>
       <c r="AD14" t="n">
-        <v>354738.7274575939</v>
+        <v>436089.1866104827</v>
       </c>
       <c r="AE14" t="n">
-        <v>485369.176875617</v>
+        <v>596676.4640175635</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.326531950979779e-06</v>
+        <v>2.550527069509283e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>439046.2238545256</v>
+        <v>539730.4997324033</v>
       </c>
     </row>
     <row r="15">
@@ -17749,28 +17749,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>353.0085799675406</v>
+        <v>434.3590391204294</v>
       </c>
       <c r="AB15" t="n">
-        <v>483.001912751006</v>
+        <v>594.3091998929524</v>
       </c>
       <c r="AC15" t="n">
-        <v>436.9048880954913</v>
+        <v>537.589163973369</v>
       </c>
       <c r="AD15" t="n">
-        <v>353008.5799675406</v>
+        <v>434359.0391204294</v>
       </c>
       <c r="AE15" t="n">
-        <v>483001.912751006</v>
+        <v>594309.1998929523</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.331699624144199e-06</v>
+        <v>2.560462970625343e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH15" t="n">
-        <v>436904.8880954913</v>
+        <v>537589.1639733689</v>
       </c>
     </row>
   </sheetData>
@@ -18046,28 +18046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>785.2229601985293</v>
+        <v>906.0661737376533</v>
       </c>
       <c r="AB2" t="n">
-        <v>1074.376695735752</v>
+        <v>1239.719711726303</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.8396917918936</v>
+        <v>1121.402602396687</v>
       </c>
       <c r="AD2" t="n">
-        <v>785222.9601985293</v>
+        <v>906066.1737376533</v>
       </c>
       <c r="AE2" t="n">
-        <v>1074376.695735752</v>
+        <v>1239719.711726303</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.140252472654025e-07</v>
+        <v>1.516467294751202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.81510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>971839.6917918937</v>
+        <v>1121402.602396687</v>
       </c>
     </row>
     <row r="3">
@@ -18152,28 +18152,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>567.7293508671352</v>
+        <v>664.38685352752</v>
       </c>
       <c r="AB3" t="n">
-        <v>776.7923443076858</v>
+        <v>909.0434036756873</v>
       </c>
       <c r="AC3" t="n">
-        <v>702.6563732018619</v>
+        <v>822.2855770793092</v>
       </c>
       <c r="AD3" t="n">
-        <v>567729.3508671352</v>
+        <v>664386.85352752</v>
       </c>
       <c r="AE3" t="n">
-        <v>776792.3443076857</v>
+        <v>909043.4036756873</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.031730768189929e-06</v>
+        <v>1.922036168048296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>702656.373201862</v>
+        <v>822285.5770793092</v>
       </c>
     </row>
     <row r="4">
@@ -18258,28 +18258,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>513.3153615441984</v>
+        <v>597.9653496197852</v>
       </c>
       <c r="AB4" t="n">
-        <v>702.3407235402589</v>
+        <v>818.1625717191831</v>
       </c>
       <c r="AC4" t="n">
-        <v>635.3103106269722</v>
+        <v>740.0782841726849</v>
       </c>
       <c r="AD4" t="n">
-        <v>513315.3615441984</v>
+        <v>597965.3496197852</v>
       </c>
       <c r="AE4" t="n">
-        <v>702340.7235402588</v>
+        <v>818162.5717191831</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.112549796005313e-06</v>
+        <v>2.072595887034087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.76953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>635310.3106269722</v>
+        <v>740078.2841726849</v>
       </c>
     </row>
     <row r="5">
@@ -18364,28 +18364,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>489.9792885421738</v>
+        <v>562.5365106869422</v>
       </c>
       <c r="AB5" t="n">
-        <v>670.4112789440074</v>
+        <v>769.6872712812053</v>
       </c>
       <c r="AC5" t="n">
-        <v>606.4281674097302</v>
+        <v>696.2293983729962</v>
       </c>
       <c r="AD5" t="n">
-        <v>489979.2885421738</v>
+        <v>562536.5106869421</v>
       </c>
       <c r="AE5" t="n">
-        <v>670411.2789440075</v>
+        <v>769687.2712812054</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.161276493707106e-06</v>
+        <v>2.163370029106742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>606428.1674097303</v>
+        <v>696229.3983729962</v>
       </c>
     </row>
     <row r="6">
@@ -18470,28 +18470,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>466.5177864009107</v>
+        <v>551.0824336219259</v>
       </c>
       <c r="AB6" t="n">
-        <v>638.3102166659068</v>
+        <v>754.0152977226335</v>
       </c>
       <c r="AC6" t="n">
-        <v>577.3907854613275</v>
+        <v>682.0531359751013</v>
       </c>
       <c r="AD6" t="n">
-        <v>466517.7864009107</v>
+        <v>551082.4336219259</v>
       </c>
       <c r="AE6" t="n">
-        <v>638310.2166659067</v>
+        <v>754015.2977226335</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.185886887621194e-06</v>
+        <v>2.209217326358311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>577390.7854613275</v>
+        <v>682053.1359751014</v>
       </c>
     </row>
     <row r="7">
@@ -18576,28 +18576,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.4311903797213</v>
+        <v>541.9958376007364</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.8775351173912</v>
+        <v>741.5826161741179</v>
       </c>
       <c r="AC7" t="n">
-        <v>566.1446615904241</v>
+        <v>670.807012104198</v>
       </c>
       <c r="AD7" t="n">
-        <v>457431.1903797213</v>
+        <v>541995.8376007364</v>
       </c>
       <c r="AE7" t="n">
-        <v>625877.5351173911</v>
+        <v>741582.6161741179</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.204074109892313e-06</v>
+        <v>2.243098742013628e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.72135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>566144.6615904241</v>
+        <v>670807.012104198</v>
       </c>
     </row>
     <row r="8">
@@ -18682,28 +18682,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>449.8225855137775</v>
+        <v>534.3872327347929</v>
       </c>
       <c r="AB8" t="n">
-        <v>615.4671062718506</v>
+        <v>731.1721873285773</v>
       </c>
       <c r="AC8" t="n">
-        <v>556.7277894627733</v>
+        <v>661.3901399765471</v>
       </c>
       <c r="AD8" t="n">
-        <v>449822.5855137776</v>
+        <v>534387.2327347929</v>
       </c>
       <c r="AE8" t="n">
-        <v>615467.1062718506</v>
+        <v>731172.1873285773</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.218567420266192e-06</v>
+        <v>2.270098679974398e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>556727.7894627734</v>
+        <v>661390.1399765471</v>
       </c>
     </row>
     <row r="9">
@@ -18788,28 +18788,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>443.8455306157169</v>
+        <v>516.3174119059136</v>
       </c>
       <c r="AB9" t="n">
-        <v>607.2890360712721</v>
+        <v>706.4482612862723</v>
       </c>
       <c r="AC9" t="n">
-        <v>549.3302228041445</v>
+        <v>639.0258307354716</v>
       </c>
       <c r="AD9" t="n">
-        <v>443845.5306157169</v>
+        <v>516317.4119059136</v>
       </c>
       <c r="AE9" t="n">
-        <v>607289.0360712721</v>
+        <v>706448.2612862723</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.230119717983035e-06</v>
+        <v>2.291619734420402e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.45442708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>549330.2228041445</v>
+        <v>639025.8307354716</v>
       </c>
     </row>
     <row r="10">
@@ -18894,28 +18894,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>439.2926310822311</v>
+        <v>511.7645123724278</v>
       </c>
       <c r="AB10" t="n">
-        <v>601.0595580698053</v>
+        <v>700.2187832848055</v>
       </c>
       <c r="AC10" t="n">
-        <v>543.6952774400104</v>
+        <v>633.3908853713376</v>
       </c>
       <c r="AD10" t="n">
-        <v>439292.6310822311</v>
+        <v>511764.5123724278</v>
       </c>
       <c r="AE10" t="n">
-        <v>601059.5580698054</v>
+        <v>700218.7832848055</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.236966395448617e-06</v>
+        <v>2.304374575242779e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>543695.2774400103</v>
+        <v>633390.8853713376</v>
       </c>
     </row>
     <row r="11">
@@ -19000,28 +19000,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>434.4216262559496</v>
+        <v>506.8935075461463</v>
       </c>
       <c r="AB11" t="n">
-        <v>594.3948343729204</v>
+        <v>693.5540595879206</v>
       </c>
       <c r="AC11" t="n">
-        <v>537.6666256187577</v>
+        <v>627.362233550085</v>
       </c>
       <c r="AD11" t="n">
-        <v>434421.6262559496</v>
+        <v>506893.5075461463</v>
       </c>
       <c r="AE11" t="n">
-        <v>594394.8343729204</v>
+        <v>693554.0595879207</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.244424803546864e-06</v>
+        <v>2.318269023836228e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>537666.6256187577</v>
+        <v>627362.233550085</v>
       </c>
     </row>
     <row r="12">
@@ -19106,28 +19106,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>430.2104596191142</v>
+        <v>502.6823409093109</v>
       </c>
       <c r="AB12" t="n">
-        <v>588.6329303968423</v>
+        <v>687.7921556118425</v>
       </c>
       <c r="AC12" t="n">
-        <v>532.4546296712736</v>
+        <v>622.1502376026007</v>
       </c>
       <c r="AD12" t="n">
-        <v>430210.4596191142</v>
+        <v>502682.3409093109</v>
       </c>
       <c r="AE12" t="n">
-        <v>588632.9303968423</v>
+        <v>687792.1556118425</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.248353996456665e-06</v>
+        <v>2.325588812211956e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>532454.6296712735</v>
+        <v>622150.2376026007</v>
       </c>
     </row>
     <row r="13">
@@ -19212,28 +19212,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>425.3478191584947</v>
+        <v>497.8197004486914</v>
       </c>
       <c r="AB13" t="n">
-        <v>581.9796511940658</v>
+        <v>681.138876409066</v>
       </c>
       <c r="AC13" t="n">
-        <v>526.4363300976739</v>
+        <v>616.1319380290013</v>
       </c>
       <c r="AD13" t="n">
-        <v>425347.8191584947</v>
+        <v>497819.7004486914</v>
       </c>
       <c r="AE13" t="n">
-        <v>581979.6511940658</v>
+        <v>681138.876409066</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.254824224302148e-06</v>
+        <v>2.337642355944443e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>526436.3300976739</v>
+        <v>616131.9380290012</v>
       </c>
     </row>
     <row r="14">
@@ -19318,28 +19318,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>423.3462506394088</v>
+        <v>495.8181319296056</v>
       </c>
       <c r="AB14" t="n">
-        <v>579.2410168432817</v>
+        <v>678.4002420582819</v>
       </c>
       <c r="AC14" t="n">
-        <v>523.9590671656313</v>
+        <v>613.6546750969584</v>
       </c>
       <c r="AD14" t="n">
-        <v>423346.2506394088</v>
+        <v>495818.1319296056</v>
       </c>
       <c r="AE14" t="n">
-        <v>579241.0168432817</v>
+        <v>678400.2420582819</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.255412426833555e-06</v>
+        <v>2.338738132647397e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>523959.0671656312</v>
+        <v>613654.6750969584</v>
       </c>
     </row>
     <row r="15">
@@ -19424,28 +19424,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>419.432957070689</v>
+        <v>491.9048383608858</v>
       </c>
       <c r="AB15" t="n">
-        <v>573.8866759402316</v>
+        <v>673.0459011552317</v>
       </c>
       <c r="AC15" t="n">
-        <v>519.1157370435036</v>
+        <v>608.8113449748307</v>
       </c>
       <c r="AD15" t="n">
-        <v>419432.9570706891</v>
+        <v>491904.8383608859</v>
       </c>
       <c r="AE15" t="n">
-        <v>573886.6759402317</v>
+        <v>673045.9011552318</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.259788653667227e-06</v>
+        <v>2.346890711317369e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>519115.7370435036</v>
+        <v>608811.3449748307</v>
       </c>
     </row>
     <row r="16">
@@ -19530,28 +19530,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>413.0943962464914</v>
+        <v>485.5662775366881</v>
       </c>
       <c r="AB16" t="n">
-        <v>565.2139773829966</v>
+        <v>664.3732025979969</v>
       </c>
       <c r="AC16" t="n">
-        <v>511.2707486643623</v>
+        <v>600.9663565956894</v>
       </c>
       <c r="AD16" t="n">
-        <v>413094.3962464915</v>
+        <v>485566.2775366881</v>
       </c>
       <c r="AE16" t="n">
-        <v>565213.9773829966</v>
+        <v>664373.2025979968</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.266870612145372e-06</v>
+        <v>2.360083862820928e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH16" t="n">
-        <v>511270.7486643622</v>
+        <v>600966.3565956894</v>
       </c>
     </row>
     <row r="17">
@@ -19636,28 +19636,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>411.2794926606564</v>
+        <v>483.7513739508531</v>
       </c>
       <c r="AB17" t="n">
-        <v>562.7307462289617</v>
+        <v>661.8899714439619</v>
       </c>
       <c r="AC17" t="n">
-        <v>509.0245136064316</v>
+        <v>598.7201215377589</v>
       </c>
       <c r="AD17" t="n">
-        <v>411279.4926606565</v>
+        <v>483751.3739508531</v>
       </c>
       <c r="AE17" t="n">
-        <v>562730.7462289617</v>
+        <v>661889.971443962</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.267882320499393e-06</v>
+        <v>2.361968598750008e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>509024.5136064317</v>
+        <v>598720.121537759</v>
       </c>
     </row>
     <row r="18">
@@ -19742,28 +19742,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>409.1503955993007</v>
+        <v>481.6222768894974</v>
       </c>
       <c r="AB18" t="n">
-        <v>559.8176217004817</v>
+        <v>658.9768469154819</v>
       </c>
       <c r="AC18" t="n">
-        <v>506.3894135943538</v>
+        <v>596.085021525681</v>
       </c>
       <c r="AD18" t="n">
-        <v>409150.3955993007</v>
+        <v>481622.2768894974</v>
       </c>
       <c r="AE18" t="n">
-        <v>559817.6217004817</v>
+        <v>658976.846915482</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.266964724550398e-06</v>
+        <v>2.360259187093401e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH18" t="n">
-        <v>506389.4135943538</v>
+        <v>596085.021525681</v>
       </c>
     </row>
     <row r="19">
@@ -19848,28 +19848,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>403.9089672273999</v>
+        <v>476.3808485175965</v>
       </c>
       <c r="AB19" t="n">
-        <v>552.646068166547</v>
+        <v>651.8052933815474</v>
       </c>
       <c r="AC19" t="n">
-        <v>499.9023030643592</v>
+        <v>589.5979109956864</v>
       </c>
       <c r="AD19" t="n">
-        <v>403908.9672273999</v>
+        <v>476380.8485175965</v>
       </c>
       <c r="AE19" t="n">
-        <v>552646.068166547</v>
+        <v>651805.2933815473</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.273717289610955e-06</v>
+        <v>2.372838703643305e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>499902.3030643592</v>
+        <v>589597.9109956864</v>
       </c>
     </row>
     <row r="20">
@@ -19954,28 +19954,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>404.0919719511231</v>
+        <v>476.5638532413198</v>
       </c>
       <c r="AB20" t="n">
-        <v>552.8964633031438</v>
+        <v>652.0556885181439</v>
       </c>
       <c r="AC20" t="n">
-        <v>500.128800840551</v>
+        <v>589.8244087718781</v>
       </c>
       <c r="AD20" t="n">
-        <v>404091.9719511232</v>
+        <v>476563.8532413198</v>
       </c>
       <c r="AE20" t="n">
-        <v>552896.4633031439</v>
+        <v>652055.688518144</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.270540995941355e-06</v>
+        <v>2.366921509447357e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>500128.800840551</v>
+        <v>589824.4087718781</v>
       </c>
     </row>
     <row r="21">
@@ -20060,28 +20060,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>404.4910800771193</v>
+        <v>476.962961367316</v>
       </c>
       <c r="AB21" t="n">
-        <v>553.4425406485396</v>
+        <v>652.6017658635399</v>
       </c>
       <c r="AC21" t="n">
-        <v>500.6227613305265</v>
+        <v>590.3183692618538</v>
       </c>
       <c r="AD21" t="n">
-        <v>404491.0800771193</v>
+        <v>476962.961367316</v>
       </c>
       <c r="AE21" t="n">
-        <v>553442.5406485397</v>
+        <v>652601.7658635399</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.27082333315643e-06</v>
+        <v>2.367447482264774e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH21" t="n">
-        <v>500622.7613305266</v>
+        <v>590318.3692618539</v>
       </c>
     </row>
     <row r="22">
@@ -20166,28 +20166,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>406.0221356095522</v>
+        <v>478.4940168997488</v>
       </c>
       <c r="AB22" t="n">
-        <v>555.5373983734171</v>
+        <v>654.6966235884174</v>
       </c>
       <c r="AC22" t="n">
-        <v>502.517688774293</v>
+        <v>592.2132967056203</v>
       </c>
       <c r="AD22" t="n">
-        <v>406022.1356095521</v>
+        <v>478494.0168997488</v>
       </c>
       <c r="AE22" t="n">
-        <v>555537.3983734171</v>
+        <v>654696.6235884174</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.270235130625023e-06</v>
+        <v>2.366351705561821e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>502517.6887742931</v>
+        <v>592213.2967056204</v>
       </c>
     </row>
   </sheetData>
@@ -20463,28 +20463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.8136440088227</v>
+        <v>582.6069197211028</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.6576132533007</v>
+        <v>797.148490365699</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.1737989358211</v>
+        <v>721.0697572501289</v>
       </c>
       <c r="AD2" t="n">
-        <v>493813.6440088227</v>
+        <v>582606.9197211028</v>
       </c>
       <c r="AE2" t="n">
-        <v>675657.6132533008</v>
+        <v>797148.4903656989</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.088786574492448e-06</v>
+        <v>2.182469808690818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.22135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>611173.798935821</v>
+        <v>721069.7572501289</v>
       </c>
     </row>
     <row r="3">
@@ -20569,28 +20569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>403.3415990413756</v>
+        <v>470.0645894845809</v>
       </c>
       <c r="AB3" t="n">
-        <v>551.8697699839108</v>
+        <v>643.1631091188931</v>
       </c>
       <c r="AC3" t="n">
-        <v>499.2000936907324</v>
+        <v>581.7805246696781</v>
       </c>
       <c r="AD3" t="n">
-        <v>403341.5990413756</v>
+        <v>470064.5894845809</v>
       </c>
       <c r="AE3" t="n">
-        <v>551869.7699839108</v>
+        <v>643163.109118893</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.256476251938533e-06</v>
+        <v>2.518603323586321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>499200.0936907324</v>
+        <v>581780.5246696782</v>
       </c>
     </row>
     <row r="4">
@@ -20675,28 +20675,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.9978041588394</v>
+        <v>435.8060459480653</v>
       </c>
       <c r="AB4" t="n">
-        <v>504.879074684328</v>
+        <v>596.2890584719596</v>
       </c>
       <c r="AC4" t="n">
-        <v>456.6941243986867</v>
+        <v>539.3800676283447</v>
       </c>
       <c r="AD4" t="n">
-        <v>368997.8041588394</v>
+        <v>435806.0459480654</v>
       </c>
       <c r="AE4" t="n">
-        <v>504879.0746843281</v>
+        <v>596289.0584719595</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.321816173311346e-06</v>
+        <v>2.649577023151705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>456694.1243986867</v>
+        <v>539380.0676283448</v>
       </c>
     </row>
     <row r="5">
@@ -20781,28 +20781,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.9069491214328</v>
+        <v>424.5445987100665</v>
       </c>
       <c r="AB5" t="n">
-        <v>489.7040775281567</v>
+        <v>580.8806495409412</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.9674076728582</v>
+        <v>525.4422156198651</v>
       </c>
       <c r="AD5" t="n">
-        <v>357906.9491214328</v>
+        <v>424544.5987100665</v>
       </c>
       <c r="AE5" t="n">
-        <v>489704.0775281567</v>
+        <v>580880.6495409412</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350400798049044e-06</v>
+        <v>2.706874827831069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>442967.4076728582</v>
+        <v>525442.2156198651</v>
       </c>
     </row>
     <row r="6">
@@ -20887,28 +20887,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.144533155447</v>
+        <v>416.7821827440807</v>
       </c>
       <c r="AB6" t="n">
-        <v>479.0831975498716</v>
+        <v>570.2597695626561</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.3601695732019</v>
+        <v>515.8349775202088</v>
       </c>
       <c r="AD6" t="n">
-        <v>350144.533155447</v>
+        <v>416782.1827440807</v>
       </c>
       <c r="AE6" t="n">
-        <v>479083.1975498716</v>
+        <v>570259.7695626561</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.365902166228259e-06</v>
+        <v>2.737947279344633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>433360.1695732019</v>
+        <v>515834.9775202088</v>
       </c>
     </row>
     <row r="7">
@@ -20993,28 +20993,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>342.2901762718178</v>
+        <v>408.9278258604514</v>
       </c>
       <c r="AB7" t="n">
-        <v>468.3365199519198</v>
+        <v>559.5130919647044</v>
       </c>
       <c r="AC7" t="n">
-        <v>423.6391398021419</v>
+        <v>506.1139477491488</v>
       </c>
       <c r="AD7" t="n">
-        <v>342290.1762718178</v>
+        <v>408927.8258604514</v>
       </c>
       <c r="AE7" t="n">
-        <v>468336.5199519198</v>
+        <v>559513.0919647043</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377712732460041e-06</v>
+        <v>2.761621528116873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>423639.1398021419</v>
+        <v>506113.9477491488</v>
       </c>
     </row>
     <row r="8">
@@ -21099,28 +21099,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.4698517924961</v>
+        <v>401.1425545071161</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.5857217051951</v>
+        <v>548.8609402371392</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.3459615986122</v>
+        <v>496.4784224320736</v>
       </c>
       <c r="AD8" t="n">
-        <v>323469.851792496</v>
+        <v>401142.5545071161</v>
       </c>
       <c r="AE8" t="n">
-        <v>442585.721705195</v>
+        <v>548860.9402371391</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.389421483465687e-06</v>
+        <v>2.785091688537627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>400345.9615986123</v>
+        <v>496478.4224320736</v>
       </c>
     </row>
     <row r="9">
@@ -21205,28 +21205,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>316.7329463267032</v>
+        <v>383.4558472613575</v>
       </c>
       <c r="AB9" t="n">
-        <v>433.3679904356042</v>
+        <v>524.6612071010381</v>
       </c>
       <c r="AC9" t="n">
-        <v>392.0079576642241</v>
+        <v>474.5882778619433</v>
       </c>
       <c r="AD9" t="n">
-        <v>316732.9463267032</v>
+        <v>383455.8472613575</v>
       </c>
       <c r="AE9" t="n">
-        <v>433367.9904356042</v>
+        <v>524661.2071010382</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.399144837561681e-06</v>
+        <v>2.804582126104428e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>392007.9576642241</v>
+        <v>474588.2778619432</v>
       </c>
     </row>
     <row r="10">
@@ -21311,28 +21311,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>316.6024639809077</v>
+        <v>383.325364915562</v>
       </c>
       <c r="AB10" t="n">
-        <v>433.189458733612</v>
+        <v>524.4826753990459</v>
       </c>
       <c r="AC10" t="n">
-        <v>391.8464647772992</v>
+        <v>474.4267849750183</v>
       </c>
       <c r="AD10" t="n">
-        <v>316602.4639809077</v>
+        <v>383325.364915562</v>
       </c>
       <c r="AE10" t="n">
-        <v>433189.458733612</v>
+        <v>524482.6753990459</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.398483038591797e-06</v>
+        <v>2.803255551819777e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>391846.4647772992</v>
+        <v>474426.7849750183</v>
       </c>
     </row>
   </sheetData>
@@ -21608,28 +21608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.5487532828883</v>
+        <v>474.980244984972</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.0484752054895</v>
+        <v>649.8889258379435</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.7434979227428</v>
+        <v>587.8644388808054</v>
       </c>
       <c r="AD2" t="n">
-        <v>400548.7532828883</v>
+        <v>474980.2449849721</v>
       </c>
       <c r="AE2" t="n">
-        <v>548048.4752054894</v>
+        <v>649888.9258379434</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.22600067304085e-06</v>
+        <v>2.564870079529713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>495743.4979227429</v>
+        <v>587864.4388808054</v>
       </c>
     </row>
     <row r="3">
@@ -21714,28 +21714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.5599262008784</v>
+        <v>408.9913283944111</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.7596507702964</v>
+        <v>559.599978933202</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.0717121704835</v>
+        <v>506.1925423473197</v>
       </c>
       <c r="AD3" t="n">
-        <v>334559.9262008783</v>
+        <v>408991.3283944111</v>
       </c>
       <c r="AE3" t="n">
-        <v>457759.6507702964</v>
+        <v>559599.978933202</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.367455150660888e-06</v>
+        <v>2.860801692979204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.62369791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>414071.7121704835</v>
+        <v>506192.5423473197</v>
       </c>
     </row>
     <row r="4">
@@ -21820,28 +21820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.9116034592504</v>
+        <v>381.6978461544622</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.9806811230382</v>
+        <v>522.2558324290488</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.466735415875</v>
+        <v>472.4124687726841</v>
       </c>
       <c r="AD4" t="n">
-        <v>317911.6034592504</v>
+        <v>381697.8461544622</v>
       </c>
       <c r="AE4" t="n">
-        <v>434980.6811230382</v>
+        <v>522255.8324290488</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.417461363367803e-06</v>
+        <v>2.965417817246447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>393466.7354158749</v>
+        <v>472412.4687726841</v>
       </c>
     </row>
     <row r="5">
@@ -21926,28 +21926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>296.324887861854</v>
+        <v>370.6709492008151</v>
       </c>
       <c r="AB5" t="n">
-        <v>405.4447845040009</v>
+        <v>507.1683455447088</v>
       </c>
       <c r="AC5" t="n">
-        <v>366.7497033162674</v>
+        <v>458.7649104611647</v>
       </c>
       <c r="AD5" t="n">
-        <v>296324.887861854</v>
+        <v>370670.9492008151</v>
       </c>
       <c r="AE5" t="n">
-        <v>405444.784504001</v>
+        <v>507168.3455447088</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.443127330441129e-06</v>
+        <v>3.019112625459963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>366749.7033162673</v>
+        <v>458764.9104611647</v>
       </c>
     </row>
     <row r="6">
@@ -22032,28 +22032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>287.4174202841164</v>
+        <v>351.2889143253486</v>
       </c>
       <c r="AB6" t="n">
-        <v>393.2571943944052</v>
+        <v>480.6489903530651</v>
       </c>
       <c r="AC6" t="n">
-        <v>355.7252797013412</v>
+        <v>434.7765253088627</v>
       </c>
       <c r="AD6" t="n">
-        <v>287417.4202841163</v>
+        <v>351288.9143253486</v>
       </c>
       <c r="AE6" t="n">
-        <v>393257.1943944052</v>
+        <v>480648.9903530651</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.457047405558378e-06</v>
+        <v>3.048234293137748e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>355725.2797013412</v>
+        <v>434776.5253088627</v>
       </c>
     </row>
     <row r="7">
@@ -22138,28 +22138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>286.4311920589712</v>
+        <v>350.3026861002035</v>
       </c>
       <c r="AB7" t="n">
-        <v>391.9077934274432</v>
+        <v>479.2995893861031</v>
       </c>
       <c r="AC7" t="n">
-        <v>354.5046636687699</v>
+        <v>433.5559092762913</v>
       </c>
       <c r="AD7" t="n">
-        <v>286431.1920589713</v>
+        <v>350302.6861002035</v>
       </c>
       <c r="AE7" t="n">
-        <v>391907.7934274431</v>
+        <v>479299.5893861031</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46062685344567e-06</v>
+        <v>3.055722721969178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.81640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>354504.6636687699</v>
+        <v>433555.9092762913</v>
       </c>
     </row>
   </sheetData>
@@ -41288,28 +41288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.1682465384249</v>
+        <v>406.8553507580907</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.5919814933269</v>
+        <v>556.6774400985057</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.8246064174915</v>
+        <v>503.5489265171978</v>
       </c>
       <c r="AD2" t="n">
-        <v>335168.2465384249</v>
+        <v>406855.3507580907</v>
       </c>
       <c r="AE2" t="n">
-        <v>458591.9814933269</v>
+        <v>556677.4400985057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338182537434162e-06</v>
+        <v>2.909015830122899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>414824.6064174914</v>
+        <v>503548.9265171978</v>
       </c>
     </row>
     <row r="3">
@@ -41394,28 +41394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.9097561209621</v>
+        <v>353.4168159923055</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.4038064742472</v>
+        <v>483.5604792901916</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.2852677511074</v>
+        <v>437.4101458281301</v>
       </c>
       <c r="AD3" t="n">
-        <v>291909.7561209621</v>
+        <v>353416.8159923055</v>
       </c>
       <c r="AE3" t="n">
-        <v>399403.8064742472</v>
+        <v>483560.4792901915</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.459688381801404e-06</v>
+        <v>3.173152010971952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.23307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>361285.2677511074</v>
+        <v>437410.1458281301</v>
       </c>
     </row>
     <row r="4">
@@ -41500,28 +41500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.0346009613451</v>
+        <v>338.7216156724599</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.3685217704653</v>
+        <v>463.4538579060958</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.4982628506323</v>
+        <v>419.2224721691121</v>
       </c>
       <c r="AD4" t="n">
-        <v>267034.6009613451</v>
+        <v>338721.6156724599</v>
       </c>
       <c r="AE4" t="n">
-        <v>365368.5217704653</v>
+        <v>463453.8579060958</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.499870337105695e-06</v>
+        <v>3.260501786354313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>330498.2628506323</v>
+        <v>419222.4721691121</v>
       </c>
     </row>
     <row r="5">
@@ -41606,28 +41606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>264.1866203331115</v>
+        <v>325.7789315504755</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.4717890308784</v>
+        <v>445.745106499472</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.9734288146128</v>
+        <v>403.2038191423478</v>
       </c>
       <c r="AD5" t="n">
-        <v>264186.6203331116</v>
+        <v>325778.9315504755</v>
       </c>
       <c r="AE5" t="n">
-        <v>361471.7890308784</v>
+        <v>445745.106499472</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.507906728166553e-06</v>
+        <v>3.277971741430785e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>326973.4288146128</v>
+        <v>403203.8191423478</v>
       </c>
     </row>
   </sheetData>
@@ -41903,28 +41903,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.8967588044844</v>
+        <v>288.8857715047102</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.2913759591092</v>
+        <v>395.2662573135056</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.009532358909</v>
+        <v>357.5426004751803</v>
       </c>
       <c r="AD2" t="n">
-        <v>231896.7588044844</v>
+        <v>288885.7715047102</v>
       </c>
       <c r="AE2" t="n">
-        <v>317291.3759591092</v>
+        <v>395266.2573135056</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.565660564374477e-06</v>
+        <v>3.723965868089436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>287009.532358909</v>
+        <v>357542.6004751803</v>
       </c>
     </row>
     <row r="3">
@@ -42009,28 +42009,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.2755637002336</v>
+        <v>286.2645764004593</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.7049411785084</v>
+        <v>391.679822532903</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.7653818801747</v>
+        <v>354.2984499964455</v>
       </c>
       <c r="AD3" t="n">
-        <v>229275.5637002336</v>
+        <v>286264.5764004593</v>
       </c>
       <c r="AE3" t="n">
-        <v>313704.9411785083</v>
+        <v>391679.8225329029</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582587738421471e-06</v>
+        <v>3.764227607976459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>283765.3818801747</v>
+        <v>354298.4499964454</v>
       </c>
     </row>
   </sheetData>
@@ -42306,28 +42306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>591.7912946952039</v>
+        <v>683.892093758412</v>
       </c>
       <c r="AB2" t="n">
-        <v>809.7149573912914</v>
+        <v>935.7313338700609</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.4368982999459</v>
+        <v>846.4264486726769</v>
       </c>
       <c r="AD2" t="n">
-        <v>591791.2946952039</v>
+        <v>683892.0937584119</v>
       </c>
       <c r="AE2" t="n">
-        <v>809714.9573912914</v>
+        <v>935731.3338700609</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.750663551467675e-07</v>
+        <v>1.892192507464603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.43880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>732436.898299946</v>
+        <v>846426.4486726769</v>
       </c>
     </row>
     <row r="3">
@@ -42412,28 +42412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.2784385955538</v>
+        <v>538.9412327036289</v>
       </c>
       <c r="AB3" t="n">
-        <v>627.0367775042465</v>
+        <v>737.4031709942382</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.193267510885</v>
+        <v>667.0264473063978</v>
       </c>
       <c r="AD3" t="n">
-        <v>458278.4385955539</v>
+        <v>538941.2327036288</v>
       </c>
       <c r="AE3" t="n">
-        <v>627036.7775042466</v>
+        <v>737403.1709942381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.165864826398281e-06</v>
+        <v>2.262451860412405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>567193.267510885</v>
+        <v>667026.4473063978</v>
       </c>
     </row>
     <row r="4">
@@ -42518,28 +42518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.2274477659252</v>
+        <v>499.8049010194286</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.605489043023</v>
+        <v>683.8551154108169</v>
       </c>
       <c r="AC4" t="n">
-        <v>518.8613862291162</v>
+        <v>618.5889429926902</v>
       </c>
       <c r="AD4" t="n">
-        <v>419227.4477659252</v>
+        <v>499804.9010194286</v>
       </c>
       <c r="AE4" t="n">
-        <v>573605.489043023</v>
+        <v>683855.1154108169</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.233936797109305e-06</v>
+        <v>2.394550842464106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.98828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>518861.3862291162</v>
+        <v>618588.9429926903</v>
       </c>
     </row>
     <row r="5">
@@ -42624,28 +42624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>405.3829257902998</v>
+        <v>485.9603790438032</v>
       </c>
       <c r="AB5" t="n">
-        <v>554.6628032987692</v>
+        <v>664.912429666563</v>
       </c>
       <c r="AC5" t="n">
-        <v>501.7265638260676</v>
+        <v>601.4541205896417</v>
       </c>
       <c r="AD5" t="n">
-        <v>405382.9257902998</v>
+        <v>485960.3790438032</v>
       </c>
       <c r="AE5" t="n">
-        <v>554662.8032987692</v>
+        <v>664912.4296665629</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.269191430765069e-06</v>
+        <v>2.462965215808783e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>501726.5638260676</v>
+        <v>601454.1205896416</v>
       </c>
     </row>
     <row r="6">
@@ -42730,28 +42730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.3060492060608</v>
+        <v>463.3603356669616</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.5069320789077</v>
+        <v>633.9900532748225</v>
       </c>
       <c r="AC6" t="n">
-        <v>488.0171476840308</v>
+        <v>573.4829324009008</v>
       </c>
       <c r="AD6" t="n">
-        <v>394306.0492060608</v>
+        <v>463360.3356669616</v>
       </c>
       <c r="AE6" t="n">
-        <v>539506.9320789076</v>
+        <v>633990.0532748224</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.293810588345909e-06</v>
+        <v>2.510740616189145e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.38932291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>488017.1476840308</v>
+        <v>573482.9324009009</v>
       </c>
     </row>
     <row r="7">
@@ -42836,28 +42836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.438885176386</v>
+        <v>456.4931716372869</v>
       </c>
       <c r="AB7" t="n">
-        <v>530.1109752956113</v>
+        <v>624.5940964915261</v>
       </c>
       <c r="AC7" t="n">
-        <v>479.517927828824</v>
+        <v>564.9837125456942</v>
       </c>
       <c r="AD7" t="n">
-        <v>387438.885176386</v>
+        <v>456493.1716372869</v>
       </c>
       <c r="AE7" t="n">
-        <v>530110.9752956113</v>
+        <v>624594.0964915261</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307277267542629e-06</v>
+        <v>2.536873760197202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>479517.927828824</v>
+        <v>564983.7125456942</v>
       </c>
     </row>
     <row r="8">
@@ -42942,28 +42942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>381.6784244042063</v>
+        <v>450.7327108651072</v>
       </c>
       <c r="AB8" t="n">
-        <v>522.2292587335215</v>
+        <v>616.7123799294363</v>
       </c>
       <c r="AC8" t="n">
-        <v>472.3884312333616</v>
+        <v>557.8542159502317</v>
       </c>
       <c r="AD8" t="n">
-        <v>381678.4244042063</v>
+        <v>450732.7108651072</v>
       </c>
       <c r="AE8" t="n">
-        <v>522229.2587335216</v>
+        <v>616712.3799294364</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.315844734380761e-06</v>
+        <v>2.553499599529569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>472388.4312333616</v>
+        <v>557854.2159502318</v>
       </c>
     </row>
     <row r="9">
@@ -43048,28 +43048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>374.7888734347776</v>
+        <v>443.8431598956784</v>
       </c>
       <c r="AB9" t="n">
-        <v>512.8026711516119</v>
+        <v>607.2857923475267</v>
       </c>
       <c r="AC9" t="n">
-        <v>463.8615039399705</v>
+        <v>549.3272886568407</v>
       </c>
       <c r="AD9" t="n">
-        <v>374788.8734347776</v>
+        <v>443843.1598956784</v>
       </c>
       <c r="AE9" t="n">
-        <v>512802.6711516118</v>
+        <v>607285.7923475266</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.327637310861984e-06</v>
+        <v>2.576384016311761e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>463861.5039399705</v>
+        <v>549327.2886568407</v>
       </c>
     </row>
     <row r="10">
@@ -43154,28 +43154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>368.1860998945568</v>
+        <v>437.2403863554577</v>
       </c>
       <c r="AB10" t="n">
-        <v>503.7684651000718</v>
+        <v>598.2515862959865</v>
       </c>
       <c r="AC10" t="n">
-        <v>455.6895098344016</v>
+        <v>541.1552945512717</v>
       </c>
       <c r="AD10" t="n">
-        <v>368186.0998945569</v>
+        <v>437240.3863554577</v>
       </c>
       <c r="AE10" t="n">
-        <v>503768.4651000717</v>
+        <v>598251.5862959865</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.335195392239302e-06</v>
+        <v>2.591051064228533e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>455689.5098344017</v>
+        <v>541155.2945512717</v>
       </c>
     </row>
     <row r="11">
@@ -43260,28 +43260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>352.3061323821817</v>
+        <v>432.7982447811136</v>
       </c>
       <c r="AB11" t="n">
-        <v>482.0407929749176</v>
+        <v>592.1736522205136</v>
       </c>
       <c r="AC11" t="n">
-        <v>436.0354962418928</v>
+        <v>535.6574299735279</v>
       </c>
       <c r="AD11" t="n">
-        <v>352306.1323821817</v>
+        <v>432798.2447811136</v>
       </c>
       <c r="AE11" t="n">
-        <v>482040.7929749176</v>
+        <v>592173.6522205137</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.338715931773362e-06</v>
+        <v>2.597882946482925e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.97265625</v>
       </c>
       <c r="AH11" t="n">
-        <v>436035.4962418928</v>
+        <v>535657.4299735279</v>
       </c>
     </row>
     <row r="12">
@@ -43366,28 +43366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>347.9189201024438</v>
+        <v>428.4110325013756</v>
       </c>
       <c r="AB12" t="n">
-        <v>476.0380155836345</v>
+        <v>586.1708748292306</v>
       </c>
       <c r="AC12" t="n">
-        <v>430.6056154998828</v>
+        <v>530.227549231518</v>
       </c>
       <c r="AD12" t="n">
-        <v>347918.9201024438</v>
+        <v>428411.0325013757</v>
       </c>
       <c r="AE12" t="n">
-        <v>476038.0155836346</v>
+        <v>586170.8748292306</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.341571754052739e-06</v>
+        <v>2.603424892927046e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>430605.6154998828</v>
+        <v>530227.5492315179</v>
       </c>
     </row>
     <row r="13">
@@ -43472,28 +43472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>344.0976447565457</v>
+        <v>424.5897571554775</v>
       </c>
       <c r="AB13" t="n">
-        <v>470.8095780726064</v>
+        <v>580.9424373182026</v>
       </c>
       <c r="AC13" t="n">
-        <v>425.876172726749</v>
+        <v>525.4981064583842</v>
       </c>
       <c r="AD13" t="n">
-        <v>344097.6447565457</v>
+        <v>424589.7571554775</v>
       </c>
       <c r="AE13" t="n">
-        <v>470809.5780726064</v>
+        <v>580942.4373182026</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.346987968720525e-06</v>
+        <v>2.613935481010726e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>425876.172726749</v>
+        <v>525498.1064583842</v>
       </c>
     </row>
     <row r="14">
@@ -43578,28 +43578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>345.1570036399618</v>
+        <v>425.6491160388936</v>
       </c>
       <c r="AB14" t="n">
-        <v>472.2590396325119</v>
+        <v>582.3918988781079</v>
       </c>
       <c r="AC14" t="n">
-        <v>427.1872997097092</v>
+        <v>526.8092334413442</v>
       </c>
       <c r="AD14" t="n">
-        <v>345157.0036399618</v>
+        <v>425649.1160388936</v>
       </c>
       <c r="AE14" t="n">
-        <v>472259.0396325118</v>
+        <v>582391.8988781079</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.346692538829554e-06</v>
+        <v>2.613362176206162e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>427187.2997097092</v>
+        <v>526809.2334413442</v>
       </c>
     </row>
   </sheetData>
@@ -43875,28 +43875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>748.9149763160525</v>
+        <v>856.7112013071521</v>
       </c>
       <c r="AB2" t="n">
-        <v>1024.698510392547</v>
+        <v>1172.19006105918</v>
       </c>
       <c r="AC2" t="n">
-        <v>926.9027227340734</v>
+        <v>1060.317886810775</v>
       </c>
       <c r="AD2" t="n">
-        <v>748914.9763160525</v>
+        <v>856711.2013071522</v>
       </c>
       <c r="AE2" t="n">
-        <v>1024698.510392547</v>
+        <v>1172190.06105918</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43025363337668e-07</v>
+        <v>1.581846240822643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>926902.7227340734</v>
+        <v>1060317.886810775</v>
       </c>
     </row>
     <row r="3">
@@ -43981,28 +43981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>547.5922851829283</v>
+        <v>643.4015899613526</v>
       </c>
       <c r="AB3" t="n">
-        <v>749.239922653915</v>
+        <v>880.3304402599684</v>
       </c>
       <c r="AC3" t="n">
-        <v>677.7335160006605</v>
+        <v>796.3129385930894</v>
       </c>
       <c r="AD3" t="n">
-        <v>547592.2851829283</v>
+        <v>643401.5899613525</v>
       </c>
       <c r="AE3" t="n">
-        <v>749239.922653915</v>
+        <v>880330.4402599684</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05658704395581e-06</v>
+        <v>1.982571718798875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.61588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>677733.5160006605</v>
+        <v>796312.9385930893</v>
       </c>
     </row>
     <row r="4">
@@ -44087,28 +44087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.6778976719924</v>
+        <v>580.5857126008636</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.5766114772031</v>
+        <v>794.3829856144229</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.7187734695826</v>
+        <v>718.5681883909043</v>
       </c>
       <c r="AD4" t="n">
-        <v>496677.8976719924</v>
+        <v>580585.7126008637</v>
       </c>
       <c r="AE4" t="n">
-        <v>679576.6114772031</v>
+        <v>794382.9856144228</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134994215078112e-06</v>
+        <v>2.129694325409789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.60677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>614718.7734695827</v>
+        <v>718568.1883909043</v>
       </c>
     </row>
     <row r="5">
@@ -44193,28 +44193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>475.4728909724996</v>
+        <v>547.3939647057975</v>
       </c>
       <c r="AB5" t="n">
-        <v>650.5629858120857</v>
+        <v>748.9685718278224</v>
       </c>
       <c r="AC5" t="n">
-        <v>588.4741675170646</v>
+        <v>677.4880625165671</v>
       </c>
       <c r="AD5" t="n">
-        <v>475472.8909724996</v>
+        <v>547393.9647057975</v>
       </c>
       <c r="AE5" t="n">
-        <v>650562.9858120857</v>
+        <v>748968.5718278224</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.180970946586439e-06</v>
+        <v>2.215964707138065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.07942708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>588474.1675170646</v>
+        <v>677488.0625165671</v>
       </c>
     </row>
     <row r="6">
@@ -44299,28 +44299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>452.421820533502</v>
+        <v>536.2442946078017</v>
       </c>
       <c r="AB6" t="n">
-        <v>619.0234942959936</v>
+        <v>733.7131013110156</v>
       </c>
       <c r="AC6" t="n">
-        <v>559.9447608053141</v>
+        <v>663.6885526946969</v>
       </c>
       <c r="AD6" t="n">
-        <v>452421.820533502</v>
+        <v>536244.2946078017</v>
       </c>
       <c r="AE6" t="n">
-        <v>619023.4942959936</v>
+        <v>733713.1013110157</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.205240397738667e-06</v>
+        <v>2.26150371668813e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>559944.7608053141</v>
+        <v>663688.5526946969</v>
       </c>
     </row>
     <row r="7">
@@ -44405,28 +44405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>443.5738475448092</v>
+        <v>527.3963216191089</v>
       </c>
       <c r="AB7" t="n">
-        <v>606.917307307845</v>
+        <v>721.6069143228671</v>
       </c>
       <c r="AC7" t="n">
-        <v>548.9939713121743</v>
+        <v>652.737763201557</v>
       </c>
       <c r="AD7" t="n">
-        <v>443573.8475448092</v>
+        <v>527396.3216191089</v>
       </c>
       <c r="AE7" t="n">
-        <v>606917.307307845</v>
+        <v>721606.9143228671</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.223412831348254e-06</v>
+        <v>2.295602329899616e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.62369791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>548993.9713121742</v>
+        <v>652737.763201557</v>
       </c>
     </row>
     <row r="8">
@@ -44511,28 +44511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>436.4915198284789</v>
+        <v>508.3272527072051</v>
       </c>
       <c r="AB8" t="n">
-        <v>597.2269540761147</v>
+        <v>695.5157729696539</v>
       </c>
       <c r="AC8" t="n">
-        <v>540.228451792384</v>
+        <v>629.1367237599476</v>
       </c>
       <c r="AD8" t="n">
-        <v>436491.5198284789</v>
+        <v>508327.2527072051</v>
       </c>
       <c r="AE8" t="n">
-        <v>597226.9540761147</v>
+        <v>695515.7729696538</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.237931799192988e-06</v>
+        <v>2.322845608340124e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>540228.451792384</v>
+        <v>629136.7237599476</v>
       </c>
     </row>
     <row r="9">
@@ -44617,28 +44617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>426.3937856839509</v>
+        <v>498.2295185626772</v>
       </c>
       <c r="AB9" t="n">
-        <v>583.4107887389814</v>
+        <v>681.6996076325206</v>
       </c>
       <c r="AC9" t="n">
-        <v>527.730881883917</v>
+        <v>616.6391538514805</v>
       </c>
       <c r="AD9" t="n">
-        <v>426393.7856839509</v>
+        <v>498229.5185626772</v>
       </c>
       <c r="AE9" t="n">
-        <v>583410.7887389814</v>
+        <v>681699.6076325206</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.255392518692539e-06</v>
+        <v>2.355608766726095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>527730.881883917</v>
+        <v>616639.1538514805</v>
       </c>
     </row>
     <row r="10">
@@ -44723,28 +44723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>425.2568740687345</v>
+        <v>497.0926069474608</v>
       </c>
       <c r="AB10" t="n">
-        <v>581.8552161100419</v>
+        <v>680.1440350035808</v>
       </c>
       <c r="AC10" t="n">
-        <v>526.3237709234234</v>
+        <v>615.2320428909869</v>
       </c>
       <c r="AD10" t="n">
-        <v>425256.8740687345</v>
+        <v>497092.6069474608</v>
       </c>
       <c r="AE10" t="n">
-        <v>581855.2161100418</v>
+        <v>680144.0350035809</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.255772099551225e-06</v>
+        <v>2.356321009299703e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.29817708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>526323.7709234233</v>
+        <v>615232.0428909869</v>
       </c>
     </row>
     <row r="11">
@@ -44829,28 +44829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>421.9202770437413</v>
+        <v>493.7560099224676</v>
       </c>
       <c r="AB11" t="n">
-        <v>577.2899368601743</v>
+        <v>675.5787557537134</v>
       </c>
       <c r="AC11" t="n">
-        <v>522.1941955177537</v>
+        <v>611.102467485317</v>
       </c>
       <c r="AD11" t="n">
-        <v>421920.2770437413</v>
+        <v>493756.0099224676</v>
       </c>
       <c r="AE11" t="n">
-        <v>577289.9368601743</v>
+        <v>675578.7557537134</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.259615355745419e-06</v>
+        <v>2.363532465357484e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>522194.1955177537</v>
+        <v>611102.467485317</v>
       </c>
     </row>
     <row r="12">
@@ -44935,28 +44935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>416.0968401596251</v>
+        <v>487.9325730383514</v>
       </c>
       <c r="AB12" t="n">
-        <v>569.3220536034231</v>
+        <v>667.6108724969623</v>
       </c>
       <c r="AC12" t="n">
-        <v>514.9867558560323</v>
+        <v>603.8950278235958</v>
       </c>
       <c r="AD12" t="n">
-        <v>416096.8401596251</v>
+        <v>487932.5730383514</v>
       </c>
       <c r="AE12" t="n">
-        <v>569322.0536034231</v>
+        <v>667610.8724969623</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.267752620403498e-06</v>
+        <v>2.378801165529207e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>514986.7558560324</v>
+        <v>603895.0278235958</v>
       </c>
     </row>
     <row r="13">
@@ -45041,28 +45041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>413.2030091875004</v>
+        <v>485.0387420662267</v>
       </c>
       <c r="AB13" t="n">
-        <v>565.3625864005498</v>
+        <v>663.6514052940889</v>
       </c>
       <c r="AC13" t="n">
-        <v>511.4051746458542</v>
+        <v>600.3134466134176</v>
       </c>
       <c r="AD13" t="n">
-        <v>413203.0091875003</v>
+        <v>485038.7420662267</v>
       </c>
       <c r="AE13" t="n">
-        <v>565362.5864005499</v>
+        <v>663651.4052940889</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.270243619788624e-06</v>
+        <v>2.38347525741851e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>511405.1746458542</v>
+        <v>600313.4466134176</v>
       </c>
     </row>
     <row r="14">
@@ -45147,28 +45147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>409.0637620629564</v>
+        <v>480.8994949416827</v>
       </c>
       <c r="AB14" t="n">
-        <v>559.6990858740536</v>
+        <v>657.9879047675927</v>
       </c>
       <c r="AC14" t="n">
-        <v>506.2821906608339</v>
+        <v>595.1904626283974</v>
       </c>
       <c r="AD14" t="n">
-        <v>409063.7620629564</v>
+        <v>480899.4949416827</v>
       </c>
       <c r="AE14" t="n">
-        <v>559699.0858740536</v>
+        <v>657987.9047675927</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.274063152179151e-06</v>
+        <v>2.390642198315441e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>506282.1906608339</v>
+        <v>595190.4626283974</v>
       </c>
     </row>
     <row r="15">
@@ -45253,28 +45253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>403.7957758322383</v>
+        <v>475.6315087109647</v>
       </c>
       <c r="AB15" t="n">
-        <v>552.4911947060353</v>
+        <v>650.7800135995743</v>
       </c>
       <c r="AC15" t="n">
-        <v>499.7622105095525</v>
+        <v>588.6704824771158</v>
       </c>
       <c r="AD15" t="n">
-        <v>403795.7758322384</v>
+        <v>475631.5087109647</v>
       </c>
       <c r="AE15" t="n">
-        <v>552491.1947060353</v>
+        <v>650780.0135995743</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.279804312666774e-06</v>
+        <v>2.401414867241262e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>499762.2105095524</v>
+        <v>588670.4824771158</v>
       </c>
     </row>
     <row r="16">
@@ -45359,28 +45359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>401.0810547586945</v>
+        <v>472.9167876374208</v>
       </c>
       <c r="AB16" t="n">
-        <v>548.7767935681713</v>
+        <v>647.0656124617104</v>
       </c>
       <c r="AC16" t="n">
-        <v>496.4023066030915</v>
+        <v>585.3105785706549</v>
       </c>
       <c r="AD16" t="n">
-        <v>401081.0547586945</v>
+        <v>472916.7876374208</v>
       </c>
       <c r="AE16" t="n">
-        <v>548776.7935681713</v>
+        <v>647065.6124617105</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277716617944002e-06</v>
+        <v>2.397497533086418e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH16" t="n">
-        <v>496402.3066030915</v>
+        <v>585310.578570655</v>
       </c>
     </row>
     <row r="17">
@@ -45465,28 +45465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>398.0750997582704</v>
+        <v>469.9108326369966</v>
       </c>
       <c r="AB17" t="n">
-        <v>544.6639133232158</v>
+        <v>642.952732216755</v>
       </c>
       <c r="AC17" t="n">
-        <v>492.6819538762508</v>
+        <v>581.5902258438143</v>
       </c>
       <c r="AD17" t="n">
-        <v>398075.0997582704</v>
+        <v>469910.8326369966</v>
       </c>
       <c r="AE17" t="n">
-        <v>544663.9133232158</v>
+        <v>642952.7322167549</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.282556273892247e-06</v>
+        <v>2.406578625899921e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>492681.9538762508</v>
+        <v>581590.2258438143</v>
       </c>
     </row>
     <row r="18">
@@ -45571,28 +45571,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>380.6344749123087</v>
+        <v>464.3716081320368</v>
       </c>
       <c r="AB18" t="n">
-        <v>520.8008809829062</v>
+        <v>635.3737208757308</v>
       </c>
       <c r="AC18" t="n">
-        <v>471.0963758505242</v>
+        <v>574.7345447079681</v>
       </c>
       <c r="AD18" t="n">
-        <v>380634.4749123087</v>
+        <v>464371.6081320368</v>
       </c>
       <c r="AE18" t="n">
-        <v>520800.8809829062</v>
+        <v>635373.7208757307</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.287633167877171e-06</v>
+        <v>2.416104870321929e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH18" t="n">
-        <v>471096.3758505242</v>
+        <v>574734.5447079681</v>
       </c>
     </row>
     <row r="19">
@@ -45677,28 +45677,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>381.6154451218081</v>
+        <v>465.3525783415361</v>
       </c>
       <c r="AB19" t="n">
-        <v>522.1430877008944</v>
+        <v>636.715927593719</v>
       </c>
       <c r="AC19" t="n">
-        <v>472.3104842431466</v>
+        <v>575.9486531005906</v>
       </c>
       <c r="AD19" t="n">
-        <v>381615.4451218081</v>
+        <v>465352.5783415361</v>
       </c>
       <c r="AE19" t="n">
-        <v>522143.0877008945</v>
+        <v>636715.927593719</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.28775178689551e-06</v>
+        <v>2.416327446126181e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH19" t="n">
-        <v>472310.4842431466</v>
+        <v>575948.6531005906</v>
       </c>
     </row>
     <row r="20">
@@ -45783,28 +45783,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>382.7988763914831</v>
+        <v>466.5360096112112</v>
       </c>
       <c r="AB20" t="n">
-        <v>523.7623105733668</v>
+        <v>638.3351504661912</v>
       </c>
       <c r="AC20" t="n">
-        <v>473.7751707572638</v>
+        <v>577.4133396147078</v>
       </c>
       <c r="AD20" t="n">
-        <v>382798.8763914831</v>
+        <v>466536.0096112113</v>
       </c>
       <c r="AE20" t="n">
-        <v>523762.3105733668</v>
+        <v>638335.1504661912</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.287585720269835e-06</v>
+        <v>2.416015840000228e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH20" t="n">
-        <v>473775.1707572638</v>
+        <v>577413.3396147077</v>
       </c>
     </row>
   </sheetData>
@@ -46080,28 +46080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.8544199628972</v>
+        <v>260.7303263962795</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.6590990491635</v>
+        <v>356.7427351855778</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.7779499470224</v>
+        <v>322.6957092310389</v>
       </c>
       <c r="AD2" t="n">
-        <v>205854.4199628972</v>
+        <v>260730.3263962795</v>
       </c>
       <c r="AE2" t="n">
-        <v>281659.0990491635</v>
+        <v>356742.7351855778</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.587347118726077e-06</v>
+        <v>3.969834680904488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>254777.9499470224</v>
+        <v>322695.7092310389</v>
       </c>
     </row>
   </sheetData>
@@ -46377,28 +46377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.4828651700253</v>
+        <v>503.0952426444052</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.9009153386244</v>
+        <v>688.3571059817374</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.0787928922958</v>
+        <v>622.6612699021057</v>
       </c>
       <c r="AD2" t="n">
-        <v>427482.8651700253</v>
+        <v>503095.2426444052</v>
       </c>
       <c r="AE2" t="n">
-        <v>584900.9153386244</v>
+        <v>688357.1059817374</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.177770014411646e-06</v>
+        <v>2.425362308146674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>529078.7928922959</v>
+        <v>622661.2699021057</v>
       </c>
     </row>
     <row r="3">
@@ -46483,28 +46483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.5392799246683</v>
+        <v>430.1515678904972</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.0962839620642</v>
+        <v>588.5523521356288</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.7993754576347</v>
+        <v>532.3817416862179</v>
       </c>
       <c r="AD3" t="n">
-        <v>354539.2799246683</v>
+        <v>430151.5678904972</v>
       </c>
       <c r="AE3" t="n">
-        <v>485096.2839620642</v>
+        <v>588552.3521356288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.327430964398333e-06</v>
+        <v>2.733556626780659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>438799.3754576346</v>
+        <v>532381.7416862178</v>
       </c>
     </row>
     <row r="4">
@@ -46589,28 +46589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>336.4271831591676</v>
+        <v>401.2256136592046</v>
       </c>
       <c r="AB4" t="n">
-        <v>460.3145141181909</v>
+        <v>548.9745854333377</v>
       </c>
       <c r="AC4" t="n">
-        <v>416.3827429462281</v>
+        <v>496.581221490249</v>
       </c>
       <c r="AD4" t="n">
-        <v>336427.1831591676</v>
+        <v>401225.6136592046</v>
       </c>
       <c r="AE4" t="n">
-        <v>460314.5141181909</v>
+        <v>548974.5854333377</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381150048401935e-06</v>
+        <v>2.84417944785459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>416382.7429462281</v>
+        <v>496581.221490249</v>
       </c>
     </row>
     <row r="5">
@@ -46695,28 +46695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.8696764398796</v>
+        <v>389.6681069399166</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.5010235436501</v>
+        <v>533.161094858797</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.0784697177482</v>
+        <v>482.276948261769</v>
       </c>
       <c r="AD5" t="n">
-        <v>324869.6764398796</v>
+        <v>389668.1069399166</v>
       </c>
       <c r="AE5" t="n">
-        <v>444501.0235436502</v>
+        <v>533161.094858797</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.40926373244273e-06</v>
+        <v>2.902073492346589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>402078.4697177482</v>
+        <v>482276.948261769</v>
       </c>
     </row>
     <row r="6">
@@ -46801,28 +46801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.7793475774635</v>
+        <v>378.3062946887207</v>
       </c>
       <c r="AB6" t="n">
-        <v>414.2760610375637</v>
+        <v>517.6153620889306</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.7381352122414</v>
+        <v>468.2148784088858</v>
       </c>
       <c r="AD6" t="n">
-        <v>302779.3475774635</v>
+        <v>378306.2946887207</v>
       </c>
       <c r="AE6" t="n">
-        <v>414276.0610375638</v>
+        <v>517615.3620889306</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.431420241798301e-06</v>
+        <v>2.947700025552179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>374738.1352122414</v>
+        <v>468214.8784088858</v>
       </c>
     </row>
     <row r="7">
@@ -46907,28 +46907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.8809170463237</v>
+        <v>362.7645988923813</v>
       </c>
       <c r="AB7" t="n">
-        <v>407.5738122813552</v>
+        <v>496.3505282491514</v>
       </c>
       <c r="AC7" t="n">
-        <v>368.6755396706602</v>
+        <v>448.9795304653933</v>
       </c>
       <c r="AD7" t="n">
-        <v>297880.9170463237</v>
+        <v>362764.5988923813</v>
       </c>
       <c r="AE7" t="n">
-        <v>407573.8122813552</v>
+        <v>496350.5282491514</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.437011625055486e-06</v>
+        <v>2.959214268601703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>368675.5396706602</v>
+        <v>448979.5304653933</v>
       </c>
     </row>
     <row r="8">
@@ -47013,28 +47013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>298.3804193536195</v>
+        <v>363.264101199677</v>
       </c>
       <c r="AB8" t="n">
-        <v>408.2572533746838</v>
+        <v>497.03396934248</v>
       </c>
       <c r="AC8" t="n">
-        <v>369.293754105257</v>
+        <v>449.5977448999902</v>
       </c>
       <c r="AD8" t="n">
-        <v>298380.4193536195</v>
+        <v>363264.101199677</v>
       </c>
       <c r="AE8" t="n">
-        <v>408257.2533746838</v>
+        <v>497033.9693424799</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.435809738934782e-06</v>
+        <v>2.956739244394796e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>369293.754105257</v>
+        <v>449597.7448999902</v>
       </c>
     </row>
   </sheetData>
@@ -47310,28 +47310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.6828391961691</v>
+        <v>612.7732978263574</v>
       </c>
       <c r="AB2" t="n">
-        <v>715.1577197276324</v>
+        <v>838.423459735984</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.9040706869901</v>
+        <v>758.4055014734973</v>
       </c>
       <c r="AD2" t="n">
-        <v>522682.8391961691</v>
+        <v>612773.2978263574</v>
       </c>
       <c r="AE2" t="n">
-        <v>715157.7197276324</v>
+        <v>838423.459735984</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.047505350489228e-06</v>
+        <v>2.07530095739676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.63151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>646904.07068699</v>
+        <v>758405.5014734974</v>
       </c>
     </row>
     <row r="3">
@@ -47416,28 +47416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.9386853528098</v>
+        <v>500.5972444536325</v>
       </c>
       <c r="AB3" t="n">
-        <v>577.3151239207592</v>
+        <v>684.9392346532198</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.2169787606265</v>
+        <v>619.5695954161694</v>
       </c>
       <c r="AD3" t="n">
-        <v>421938.6853528098</v>
+        <v>500597.2444536325</v>
       </c>
       <c r="AE3" t="n">
-        <v>577315.1239207592</v>
+        <v>684939.2346532198</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.224450011648691e-06</v>
+        <v>2.425860908750685e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>522216.9787606265</v>
+        <v>619569.5954161694</v>
       </c>
     </row>
     <row r="4">
@@ -47522,28 +47522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.9972484308028</v>
+        <v>465.7410588776461</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.5067084166664</v>
+        <v>637.2474638017763</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.9713313327118</v>
+        <v>576.4294602389668</v>
       </c>
       <c r="AD4" t="n">
-        <v>386997.2484308028</v>
+        <v>465741.0588776461</v>
       </c>
       <c r="AE4" t="n">
-        <v>529506.7084166664</v>
+        <v>637247.4638017763</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.288445919807588e-06</v>
+        <v>2.552648585214203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>478971.3313327118</v>
+        <v>576429.4602389669</v>
       </c>
     </row>
     <row r="5">
@@ -47628,28 +47628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>374.5701149428451</v>
+        <v>442.0527075694658</v>
       </c>
       <c r="AB5" t="n">
-        <v>512.5033561320063</v>
+        <v>604.8360164856208</v>
       </c>
       <c r="AC5" t="n">
-        <v>463.5907551257449</v>
+        <v>547.111315964913</v>
       </c>
       <c r="AD5" t="n">
-        <v>374570.1149428451</v>
+        <v>442052.7075694659</v>
       </c>
       <c r="AE5" t="n">
-        <v>512503.3561320063</v>
+        <v>604836.0164856208</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.320871519499733e-06</v>
+        <v>2.616889668139312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>463590.7551257449</v>
+        <v>547111.315964913</v>
       </c>
     </row>
     <row r="6">
@@ -47734,28 +47734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.1982423598481</v>
+        <v>432.6808349864689</v>
       </c>
       <c r="AB6" t="n">
-        <v>499.6803466061119</v>
+        <v>592.0130069597263</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.9915556317949</v>
+        <v>535.512116470963</v>
       </c>
       <c r="AD6" t="n">
-        <v>365198.2423598481</v>
+        <v>432680.8349864689</v>
       </c>
       <c r="AE6" t="n">
-        <v>499680.3466061119</v>
+        <v>592013.0069597263</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34119726391498e-06</v>
+        <v>2.657158710034958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>451991.5556317949</v>
+        <v>535512.116470963</v>
       </c>
     </row>
     <row r="7">
@@ -47840,28 +47840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>356.6621415592797</v>
+        <v>424.1447341859005</v>
       </c>
       <c r="AB7" t="n">
-        <v>488.0008769045851</v>
+        <v>580.3335372581996</v>
       </c>
       <c r="AC7" t="n">
-        <v>441.4267581263432</v>
+        <v>524.9473189655114</v>
       </c>
       <c r="AD7" t="n">
-        <v>356662.1415592798</v>
+        <v>424144.7341859005</v>
       </c>
       <c r="AE7" t="n">
-        <v>488000.8769045851</v>
+        <v>580333.5372581996</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.35654219472352e-06</v>
+        <v>2.687559843149244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>441426.7581263432</v>
+        <v>524947.3189655114</v>
       </c>
     </row>
     <row r="8">
@@ -47946,28 +47946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>350.8502966682117</v>
+        <v>418.3328892948325</v>
       </c>
       <c r="AB8" t="n">
-        <v>480.0488543241251</v>
+        <v>572.3815146777395</v>
       </c>
       <c r="AC8" t="n">
-        <v>434.2336654202284</v>
+        <v>517.7542262593965</v>
       </c>
       <c r="AD8" t="n">
-        <v>350850.2966682118</v>
+        <v>418332.8892948325</v>
       </c>
       <c r="AE8" t="n">
-        <v>480048.8543241251</v>
+        <v>572381.5146777395</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363887637012198e-06</v>
+        <v>2.702112516705592e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>434233.6654202284</v>
+        <v>517754.2262593965</v>
       </c>
     </row>
     <row r="9">
@@ -48052,28 +48052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>331.4484909649831</v>
+        <v>410.1069605572548</v>
       </c>
       <c r="AB9" t="n">
-        <v>453.5024478137098</v>
+        <v>561.126436076622</v>
       </c>
       <c r="AC9" t="n">
-        <v>410.2208106890515</v>
+        <v>507.5733165633677</v>
       </c>
       <c r="AD9" t="n">
-        <v>331448.4909649831</v>
+        <v>410106.9605572547</v>
       </c>
       <c r="AE9" t="n">
-        <v>453502.4478137098</v>
+        <v>561126.436076622</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.374729711075282e-06</v>
+        <v>2.723592661578145e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>410220.8106890515</v>
+        <v>507573.3165633677</v>
       </c>
     </row>
     <row r="10">
@@ -48158,28 +48158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>327.6795780620421</v>
+        <v>406.3380476543138</v>
       </c>
       <c r="AB10" t="n">
-        <v>448.3456549072037</v>
+        <v>555.9696431701159</v>
       </c>
       <c r="AC10" t="n">
-        <v>405.5561748599381</v>
+        <v>502.9086807342543</v>
       </c>
       <c r="AD10" t="n">
-        <v>327679.5780620421</v>
+        <v>406338.0476543138</v>
       </c>
       <c r="AE10" t="n">
-        <v>448345.6549072036</v>
+        <v>555969.6431701159</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377069184132977e-06</v>
+        <v>2.728227588429995e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.89453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>405556.1748599381</v>
+        <v>502908.6807342543</v>
       </c>
     </row>
     <row r="11">
@@ -48264,28 +48264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>325.7355901996082</v>
+        <v>393.3034341722496</v>
       </c>
       <c r="AB11" t="n">
-        <v>445.68580495113</v>
+        <v>538.1351099573938</v>
       </c>
       <c r="AC11" t="n">
-        <v>403.1501772505492</v>
+        <v>486.7762503404296</v>
       </c>
       <c r="AD11" t="n">
-        <v>325735.5901996082</v>
+        <v>393303.4341722496</v>
       </c>
       <c r="AE11" t="n">
-        <v>445685.80495113</v>
+        <v>538135.1099573937</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.381068928392908e-06</v>
+        <v>2.736151818208965e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH11" t="n">
-        <v>403150.1772505492</v>
+        <v>486776.2503404296</v>
       </c>
     </row>
   </sheetData>
